--- a/Data analysis for field work/02_data_class/5_Jeju_Hotplace/files/3_location_counts.xlsx
+++ b/Data analysis for field work/02_data_class/5_Jeju_Hotplace/files/3_location_counts.xlsx
@@ -76,30 +76,30 @@
     <t>제주레포츠랜드</t>
   </si>
   <si>
+    <t>밥깡패</t>
+  </si>
+  <si>
     <t>제주 함덕 서우봉 해변</t>
   </si>
   <si>
-    <t>밥깡패</t>
+    <t>제주도 서귀포 중문관광단지 濟州島西歸浦中文觀光團地</t>
+  </si>
+  <si>
+    <t>제주고궁한복카페 jeju gogung hanbok studio</t>
   </si>
   <si>
     <t>위미동백나무군락지</t>
   </si>
   <si>
-    <t>제주고궁한복카페 jeju gogung hanbok studio</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문관광단지 濟州島西歸浦中文觀光團地</t>
-  </si>
-  <si>
     <t>제주신화월드 Jeju Shinhwa World</t>
   </si>
   <si>
+    <t>Woljeongri Beach</t>
+  </si>
+  <si>
     <t>협재해변 Beach</t>
   </si>
   <si>
-    <t>Woljeongri Beach</t>
-  </si>
-  <si>
     <t>연동 바오젠 거리</t>
   </si>
   <si>
@@ -115,28 +115,52 @@
     <t>새별오름</t>
   </si>
   <si>
+    <t>용머리해안</t>
+  </si>
+  <si>
     <t>용눈이오름</t>
   </si>
   <si>
-    <t>용머리해안</t>
+    <t>캔디원</t>
+  </si>
+  <si>
+    <t>사려니숲길</t>
+  </si>
+  <si>
+    <t>하이엔드 제주</t>
   </si>
   <si>
     <t>제주빅볼랜드</t>
   </si>
   <si>
-    <t>사려니숲길</t>
-  </si>
-  <si>
-    <t>하이엔드 제주</t>
-  </si>
-  <si>
-    <t>캔디원</t>
+    <t>서귀포 느영나영 게스트하우스</t>
+  </si>
+  <si>
+    <t>휴애리 자연생활공원</t>
+  </si>
+  <si>
+    <t>옹포리</t>
   </si>
   <si>
     <t>삼무공원</t>
   </si>
   <si>
-    <t>서귀포 느영나영 게스트하우스</t>
+    <t>마마뜰</t>
+  </si>
+  <si>
+    <t>제주어린왕자게스트하우스</t>
+  </si>
+  <si>
+    <t>위미동백나무군락</t>
+  </si>
+  <si>
+    <t>제주커피박물관 Baum</t>
+  </si>
+  <si>
+    <t>Jeju Aewol</t>
+  </si>
+  <si>
+    <t>한라산</t>
   </si>
   <si>
     <t>위미2리 동백군락지</t>
@@ -145,30 +169,6 @@
     <t>Jeju Island 제주특별자치도 济州道</t>
   </si>
   <si>
-    <t>제주어린왕자게스트하우스</t>
-  </si>
-  <si>
-    <t>제주커피박물관 Baum</t>
-  </si>
-  <si>
-    <t>위미동백나무군락</t>
-  </si>
-  <si>
-    <t>한라산</t>
-  </si>
-  <si>
-    <t>마마뜰</t>
-  </si>
-  <si>
-    <t>Jeju Aewol</t>
-  </si>
-  <si>
-    <t>휴애리 자연생활공원</t>
-  </si>
-  <si>
-    <t>옹포리</t>
-  </si>
-  <si>
     <t>광치기해변</t>
   </si>
   <si>
@@ -184,2923 +184,2923 @@
     <t>카페한라산</t>
   </si>
   <si>
+    <t>성이시돌목장</t>
+  </si>
+  <si>
     <t>제주 송악산</t>
   </si>
   <si>
-    <t>성이시돌목장</t>
+    <t>옹포별장가든</t>
   </si>
   <si>
     <t>월정리카페콧수염</t>
   </si>
   <si>
-    <t>옹포별장가든</t>
+    <t>牛岛 Udo Island 우도</t>
   </si>
   <si>
     <t>곽지해수욕장</t>
   </si>
   <si>
-    <t>牛岛 Udo Island 우도</t>
+    <t>카페브리프</t>
   </si>
   <si>
     <t>아줄레주</t>
   </si>
   <si>
+    <t>에코랜드</t>
+  </si>
+  <si>
+    <t>산굼부리</t>
+  </si>
+  <si>
     <t>제주 꿈꾸는고래 스쿠버&amp;게스트하우스</t>
   </si>
   <si>
-    <t>카페브리프</t>
-  </si>
-  <si>
-    <t>에코랜드</t>
-  </si>
-  <si>
-    <t>산굼부리</t>
+    <t>Terarosa - 테라로사</t>
+  </si>
+  <si>
+    <t>Casa Linda Guesthouse-까사 린다 펜션</t>
+  </si>
+  <si>
+    <t>고집돌우럭-gozipfish</t>
+  </si>
+  <si>
+    <t>the cliff jeju - 더클리프 제주</t>
+  </si>
+  <si>
+    <t>세화해수욕장</t>
+  </si>
+  <si>
+    <t>디저트쌀롱 톨</t>
+  </si>
+  <si>
+    <t>번개과학체험관</t>
+  </si>
+  <si>
+    <t>Hidden Cliff / 히든 클리프</t>
+  </si>
+  <si>
+    <t>오전열한시</t>
+  </si>
+  <si>
+    <t>하도핑크</t>
+  </si>
+  <si>
+    <t>오후새우시</t>
+  </si>
+  <si>
+    <t>르페도라펜션</t>
+  </si>
+  <si>
+    <t>제주 협재 해수욕장</t>
   </si>
   <si>
     <t>소세지가게</t>
   </si>
   <si>
+    <t>면차롱</t>
+  </si>
+  <si>
+    <t>제주신라호텔</t>
+  </si>
+  <si>
+    <t>친봉산장</t>
+  </si>
+  <si>
+    <t>오설록티뮤지엄</t>
+  </si>
+  <si>
+    <t>주상절리대</t>
+  </si>
+  <si>
+    <t>로타리과자점</t>
+  </si>
+  <si>
+    <t>르토아베이스먼트</t>
+  </si>
+  <si>
+    <t>비자림</t>
+  </si>
+  <si>
+    <t>노라바</t>
+  </si>
+  <si>
+    <t>퍼시픽랜드 - Pacific Land JEJU</t>
+  </si>
+  <si>
+    <t>제주동문재래시장</t>
+  </si>
+  <si>
     <t>우아당</t>
   </si>
   <si>
-    <t>르토아베이스먼트</t>
-  </si>
-  <si>
-    <t>하도핑크</t>
-  </si>
-  <si>
-    <t>Casa Linda Guesthouse-까사 린다 펜션</t>
-  </si>
-  <si>
-    <t>르페도라펜션</t>
-  </si>
-  <si>
-    <t>번개과학체험관</t>
-  </si>
-  <si>
-    <t>오후새우시</t>
-  </si>
-  <si>
-    <t>면차롱</t>
-  </si>
-  <si>
-    <t>제주신라호텔</t>
-  </si>
-  <si>
-    <t>로타리과자점</t>
-  </si>
-  <si>
-    <t>노라바</t>
-  </si>
-  <si>
-    <t>고집돌우럭-gozipfish</t>
-  </si>
-  <si>
-    <t>비자림</t>
-  </si>
-  <si>
-    <t>오설록티뮤지엄</t>
-  </si>
-  <si>
-    <t>Hidden Cliff / 히든 클리프</t>
-  </si>
-  <si>
-    <t>퍼시픽랜드 - Pacific Land JEJU</t>
-  </si>
-  <si>
-    <t>the cliff jeju - 더클리프 제주</t>
-  </si>
-  <si>
-    <t>주상절리대</t>
-  </si>
-  <si>
-    <t>세화해수욕장</t>
-  </si>
-  <si>
-    <t>제주동문재래시장</t>
-  </si>
-  <si>
-    <t>디저트쌀롱 톨</t>
-  </si>
-  <si>
-    <t>친봉산장</t>
-  </si>
-  <si>
-    <t>제주 협재 해수욕장</t>
-  </si>
-  <si>
-    <t>Terarosa - 테라로사</t>
-  </si>
-  <si>
     <t>우드노트</t>
   </si>
   <si>
-    <t>오전열한시</t>
+    <t>LOTTE Hotel Jeju 롯데호텔제주</t>
+  </si>
+  <si>
+    <t>춘심이네 본점</t>
+  </si>
+  <si>
+    <t>서귀포 매일올레시장</t>
+  </si>
+  <si>
+    <t>함덕487</t>
+  </si>
+  <si>
+    <t>녹근로33</t>
+  </si>
+  <si>
+    <t>Paris, France</t>
+  </si>
+  <si>
+    <t>명월국민학교</t>
+  </si>
+  <si>
+    <t>커피캄머</t>
+  </si>
+  <si>
+    <t>남원큰엉해안경승지</t>
   </si>
   <si>
     <t>아날로그감귤체험</t>
   </si>
   <si>
+    <t>탐라반상</t>
+  </si>
+  <si>
+    <t>플레이스 캠프 제주</t>
+  </si>
+  <si>
+    <t>만월당</t>
+  </si>
+  <si>
+    <t>성산일출봉 게스트하우스 파티 띵까게스트하우스</t>
+  </si>
+  <si>
+    <t>Busan, South Korea</t>
+  </si>
+  <si>
     <t>새별오름 (Saebyul Orum)</t>
   </si>
   <si>
-    <t>LOTTE Hotel Jeju 롯데호텔제주</t>
+    <t>해발1950m 한라산 백록담</t>
+  </si>
+  <si>
+    <t>제주도</t>
+  </si>
+  <si>
+    <t>수목원테마파크</t>
+  </si>
+  <si>
+    <t>Hidden Cliff Hotel &amp; Nature</t>
+  </si>
+  <si>
+    <t>지금이순간카페</t>
+  </si>
+  <si>
+    <t>제주꿈꾸는고래</t>
+  </si>
+  <si>
+    <t>Jungmun Beach</t>
   </si>
   <si>
     <t>Sunnyside Beachclub Jeju</t>
   </si>
   <si>
-    <t>녹근로33</t>
-  </si>
-  <si>
-    <t>만월당</t>
-  </si>
-  <si>
-    <t>수목원테마파크</t>
+    <t>The Shilla Jeju</t>
+  </si>
+  <si>
+    <t>함덕반하다</t>
   </si>
   <si>
     <t>Jeju International Airport</t>
   </si>
   <si>
-    <t>남원큰엉해안경승지</t>
-  </si>
-  <si>
-    <t>Hidden Cliff Hotel &amp; Nature</t>
+    <t>몽상드 애월 (Mônsant)</t>
+  </si>
+  <si>
+    <t>하늘아래 게스트하우스</t>
   </si>
   <si>
     <t>서귀포항</t>
   </si>
   <si>
-    <t>해발1950m 한라산 백록담</t>
-  </si>
-  <si>
-    <t>Paris, France</t>
-  </si>
-  <si>
-    <t>Busan, South Korea</t>
-  </si>
-  <si>
-    <t>지금이순간카페</t>
-  </si>
-  <si>
-    <t>성산일출봉 게스트하우스 파티 띵까게스트하우스</t>
-  </si>
-  <si>
-    <t>춘심이네 본점</t>
-  </si>
-  <si>
-    <t>커피캄머</t>
-  </si>
-  <si>
-    <t>플레이스 캠프 제주</t>
-  </si>
-  <si>
-    <t>몽상드 애월 (Mônsant)</t>
-  </si>
-  <si>
-    <t>탐라반상</t>
-  </si>
-  <si>
-    <t>하늘아래 게스트하우스</t>
-  </si>
-  <si>
-    <t>함덕487</t>
-  </si>
-  <si>
-    <t>서귀포 매일올레시장</t>
-  </si>
-  <si>
-    <t>The Shilla Jeju</t>
-  </si>
-  <si>
-    <t>제주도</t>
-  </si>
-  <si>
-    <t>Jungmun Beach</t>
-  </si>
-  <si>
-    <t>함덕반하다</t>
-  </si>
-  <si>
-    <t>제주꿈꾸는고래</t>
-  </si>
-  <si>
-    <t>명월국민학교</t>
+    <t>명랑스낵</t>
+  </si>
+  <si>
+    <t>제주여행</t>
+  </si>
+  <si>
+    <t>붉은제주</t>
+  </si>
+  <si>
+    <t>아뜰리에안</t>
+  </si>
+  <si>
+    <t>푸른섬 제주도</t>
+  </si>
+  <si>
+    <t>블레블랑제리 Ble' Boulangerie</t>
+  </si>
+  <si>
+    <t>설심당본점</t>
+  </si>
+  <si>
+    <t>한라수목원</t>
+  </si>
+  <si>
+    <t>제주도 월정리</t>
+  </si>
+  <si>
+    <t>앙뚜아네트</t>
+  </si>
+  <si>
+    <t>안녕김녕sea</t>
+  </si>
+  <si>
+    <t>돈사돈</t>
+  </si>
+  <si>
+    <t>Jeju horse Riding farm</t>
+  </si>
+  <si>
+    <t>다람쥐식탁</t>
+  </si>
+  <si>
+    <t>환상의 섬 Jeju Island</t>
+  </si>
+  <si>
+    <t>쿠주</t>
+  </si>
+  <si>
+    <t>제주국제공항</t>
+  </si>
+  <si>
+    <t>커피파인더coffeefinder제주시청</t>
+  </si>
+  <si>
+    <t>양가형제</t>
+  </si>
+  <si>
+    <t>Seoul, South Korea</t>
+  </si>
+  <si>
+    <t>이익새양과점</t>
+  </si>
+  <si>
+    <t>제주도 세화해변</t>
+  </si>
+  <si>
+    <t>Harmduck Beach in Jeju Island</t>
+  </si>
+  <si>
+    <t>안녕협재씨</t>
+  </si>
+  <si>
+    <t>스윗슬로cafe</t>
+  </si>
+  <si>
+    <t>제주도 해안도로</t>
+  </si>
+  <si>
+    <t>하례정원</t>
+  </si>
+  <si>
+    <t>제주도 서귀포</t>
+  </si>
+  <si>
+    <t>쇠소깍</t>
+  </si>
+  <si>
+    <t>애월늘</t>
+  </si>
+  <si>
+    <t>Guzasien -구좌지앵</t>
+  </si>
+  <si>
+    <t>제주 한라산 영실코스</t>
+  </si>
+  <si>
+    <t>혜화동버거</t>
+  </si>
+  <si>
+    <t>Jejudo</t>
+  </si>
+  <si>
+    <t>제주 산굼부리</t>
   </si>
   <si>
     <t>대평리</t>
   </si>
   <si>
-    <t>설심당본점</t>
-  </si>
-  <si>
-    <t>제주여행</t>
-  </si>
-  <si>
-    <t>제주 한라산 영실코스</t>
-  </si>
-  <si>
-    <t>Jeju horse Riding farm</t>
-  </si>
-  <si>
-    <t>제주도 서귀포</t>
+    <t>금능해변</t>
+  </si>
+  <si>
+    <t>다랑쉬오름</t>
   </si>
   <si>
     <t>보름우스테이</t>
   </si>
   <si>
-    <t>애월늘</t>
-  </si>
-  <si>
-    <t>스윗슬로cafe</t>
-  </si>
-  <si>
-    <t>명랑스낵</t>
-  </si>
-  <si>
-    <t>제주도 해안도로</t>
+    <t>법환동</t>
+  </si>
+  <si>
+    <t>천지연폭포 (Cheonjiyeon Waterfall)</t>
+  </si>
+  <si>
+    <t>로얄</t>
+  </si>
+  <si>
+    <t>선녀와나무꾼</t>
+  </si>
+  <si>
+    <t>Hamdeok Jeju</t>
+  </si>
+  <si>
+    <t>제주 남원리</t>
+  </si>
+  <si>
+    <t>인생밥집</t>
+  </si>
+  <si>
+    <t>서귀포시 성산읍</t>
   </si>
   <si>
     <t>아름다운 제주도</t>
   </si>
   <si>
-    <t>Hamdeok Jeju</t>
-  </si>
-  <si>
-    <t>선녀와나무꾼</t>
-  </si>
-  <si>
-    <t>앙뚜아네트</t>
-  </si>
-  <si>
-    <t>푸른섬 제주도</t>
-  </si>
-  <si>
-    <t>제주국제공항</t>
-  </si>
-  <si>
-    <t>쇠소깍</t>
-  </si>
-  <si>
-    <t>아뜰리에안</t>
-  </si>
-  <si>
-    <t>금능해변</t>
-  </si>
-  <si>
-    <t>블레블랑제리 Ble' Boulangerie</t>
-  </si>
-  <si>
-    <t>Seoul, South Korea</t>
-  </si>
-  <si>
-    <t>Guzasien -구좌지앵</t>
-  </si>
-  <si>
-    <t>제주 남원리</t>
-  </si>
-  <si>
-    <t>커피파인더coffeefinder제주시청</t>
-  </si>
-  <si>
-    <t>다람쥐식탁</t>
-  </si>
-  <si>
     <t>유동커피</t>
   </si>
   <si>
-    <t>Jejudo</t>
-  </si>
-  <si>
-    <t>천지연폭포 (Cheonjiyeon Waterfall)</t>
-  </si>
-  <si>
-    <t>다랑쉬오름</t>
-  </si>
-  <si>
-    <t>안녕협재씨</t>
-  </si>
-  <si>
-    <t>이익새양과점</t>
-  </si>
-  <si>
-    <t>인생밥집</t>
-  </si>
-  <si>
-    <t>제주 산굼부리</t>
-  </si>
-  <si>
-    <t>돈사돈</t>
-  </si>
-  <si>
-    <t>한라수목원</t>
-  </si>
-  <si>
-    <t>안녕김녕sea</t>
-  </si>
-  <si>
-    <t>Harmduck Beach in Jeju Island</t>
-  </si>
-  <si>
-    <t>제주도 세화해변</t>
-  </si>
-  <si>
-    <t>붉은제주</t>
-  </si>
-  <si>
-    <t>로얄</t>
-  </si>
-  <si>
-    <t>양가형제</t>
-  </si>
-  <si>
-    <t>환상의 섬 Jeju Island</t>
-  </si>
-  <si>
-    <t>법환동</t>
-  </si>
-  <si>
-    <t>쿠주</t>
-  </si>
-  <si>
-    <t>혜화동버거</t>
-  </si>
-  <si>
-    <t>하례정원</t>
-  </si>
-  <si>
-    <t>제주도 월정리</t>
-  </si>
-  <si>
-    <t>서귀포시 성산읍</t>
+    <t>구좌읍 평대리</t>
+  </si>
+  <si>
+    <t>용연구름다리</t>
+  </si>
+  <si>
+    <t>이중섭 거리</t>
+  </si>
+  <si>
+    <t>카페루핀</t>
+  </si>
+  <si>
+    <t>성산갯마을식당</t>
+  </si>
+  <si>
+    <t>Osulloc Tea Museum</t>
+  </si>
+  <si>
+    <t>제주시 아라동</t>
+  </si>
+  <si>
+    <t>어조횟집</t>
+  </si>
+  <si>
+    <t>짱구분식</t>
+  </si>
+  <si>
+    <t>김영갑갤러리 두모악</t>
+  </si>
+  <si>
+    <t>앤트러사이트 제주 한림점</t>
+  </si>
+  <si>
+    <t>평대우유차</t>
+  </si>
+  <si>
+    <t>제주 서귀포 그릴 데미그라스</t>
+  </si>
+  <si>
+    <t>서울맛집</t>
   </si>
   <si>
     <t>Meal Table Garden</t>
   </si>
   <si>
+    <t>Vadada 바다다</t>
+  </si>
+  <si>
+    <t>이런날엔</t>
+  </si>
+  <si>
+    <t>신설오름</t>
+  </si>
+  <si>
+    <t>하얏트 리젠시 제주ㅣHyatt Regency Jeju</t>
+  </si>
+  <si>
+    <t>쌀다방</t>
+  </si>
+  <si>
+    <t>제주 윗세오름</t>
+  </si>
+  <si>
+    <t>다미진횟집</t>
+  </si>
+  <si>
+    <t>남원읍 신례리</t>
+  </si>
+  <si>
+    <t>Teddy Bear Museum - 제주 테디베어뮤지엄</t>
+  </si>
+  <si>
+    <t>가시식당</t>
+  </si>
+  <si>
+    <t>이호테우해변</t>
+  </si>
+  <si>
+    <t>외쿡식당</t>
+  </si>
+  <si>
+    <t>문치비</t>
+  </si>
+  <si>
+    <t>훈이네고사리육개장</t>
+  </si>
+  <si>
+    <t>Hotel Alfonso XIII, a Luxury Collection Hotel, Seville</t>
+  </si>
+  <si>
+    <t>탐나버거</t>
+  </si>
+  <si>
+    <t>김녕회관</t>
+  </si>
+  <si>
+    <t>보엠 - Bohème</t>
+  </si>
+  <si>
+    <t>말젯문</t>
+  </si>
+  <si>
+    <t>우도</t>
+  </si>
+  <si>
+    <t>박물관이살아있다</t>
+  </si>
+  <si>
+    <t>군산오름</t>
+  </si>
+  <si>
+    <t>성산일출봉</t>
+  </si>
+  <si>
+    <t>카페주비 - JUBI</t>
+  </si>
+  <si>
+    <t>그러므로part.2</t>
+  </si>
+  <si>
+    <t>토스카나호텔</t>
+  </si>
+  <si>
+    <t>로맨틱무브</t>
+  </si>
+  <si>
+    <t>광안리 해수욕장 - 廣安里海水浴場 GwangalliBeach, Busan, South Korea</t>
+  </si>
+  <si>
+    <t>한림칼국수</t>
+  </si>
+  <si>
+    <t>평대리 해변</t>
+  </si>
+  <si>
+    <t>핏제리아마노</t>
+  </si>
+  <si>
+    <t>Ulsan, South Korea</t>
+  </si>
+  <si>
+    <t>모슬 포항</t>
+  </si>
+  <si>
+    <t>제주도 한경면</t>
+  </si>
+  <si>
+    <t>서귀포흑돈</t>
+  </si>
+  <si>
+    <t>켄싱턴 제주호텔</t>
+  </si>
+  <si>
+    <t>순옥이네명가</t>
+  </si>
+  <si>
+    <t>지오반니</t>
+  </si>
+  <si>
+    <t>영육일삼</t>
+  </si>
+  <si>
+    <t>함덕호랑이</t>
+  </si>
+  <si>
+    <t>센트로</t>
+  </si>
+  <si>
+    <t>CAFE E.P.L</t>
+  </si>
+  <si>
+    <t>애월해안가</t>
+  </si>
+  <si>
+    <t>모슬포항 만선식당</t>
+  </si>
+  <si>
+    <t>신창풍차해안도로</t>
+  </si>
+  <si>
+    <t>Hotel NANTA 호텔 난타</t>
+  </si>
+  <si>
+    <t>테지움 제주</t>
+  </si>
+  <si>
+    <t>Jeju_Gimnyeong_Maze_Park</t>
+  </si>
+  <si>
     <t>동굴카페 다희연(Cafe Daheeyeon in the Cave)</t>
   </si>
   <si>
+    <t>목장카페 드르쿰다</t>
+  </si>
+  <si>
+    <t>삼미흑돼지</t>
+  </si>
+  <si>
+    <t>제주마방목지</t>
+  </si>
+  <si>
+    <t>그계절</t>
+  </si>
+  <si>
+    <t>판포포구</t>
+  </si>
+  <si>
+    <t>중문 덤장</t>
+  </si>
+  <si>
+    <t>Daegu, South Korea</t>
+  </si>
+  <si>
+    <t>Longlive</t>
+  </si>
+  <si>
+    <t>문쏘</t>
+  </si>
+  <si>
+    <t>우동가게</t>
+  </si>
+  <si>
+    <t>하도리1091</t>
+  </si>
+  <si>
+    <t>성읍민속마을</t>
+  </si>
+  <si>
+    <t>대정읍</t>
+  </si>
+  <si>
+    <t>제주 도두동</t>
+  </si>
+  <si>
+    <t>다다의작은공간</t>
+  </si>
+  <si>
+    <t>블리스찬</t>
+  </si>
+  <si>
+    <t>Salon de Lavant</t>
+  </si>
+  <si>
+    <t>황우지해안</t>
+  </si>
+  <si>
+    <t>새연교횟집</t>
+  </si>
+  <si>
+    <t>한림항</t>
+  </si>
+  <si>
+    <t>오롯</t>
+  </si>
+  <si>
+    <t>이정의댁</t>
+  </si>
+  <si>
+    <t>부두식당</t>
+  </si>
+  <si>
+    <t>붉은못허브팜 Cafe Redpond 애월본점</t>
+  </si>
+  <si>
+    <t>제주돌마을공원</t>
+  </si>
+  <si>
+    <t>2월22일 브런치카페</t>
+  </si>
+  <si>
+    <t>천제연폭포</t>
+  </si>
+  <si>
+    <t>선흘리 동백동산</t>
+  </si>
+  <si>
+    <t>Cafe148</t>
+  </si>
+  <si>
+    <t>뉴저지카페</t>
+  </si>
+  <si>
+    <t>쿠오모제주</t>
+  </si>
+  <si>
+    <t>백약이 오름</t>
+  </si>
+  <si>
+    <t>제주 휴애리</t>
+  </si>
+  <si>
+    <t>비브레이브 커피 로스터즈</t>
+  </si>
+  <si>
+    <t>가시아방</t>
+  </si>
+  <si>
+    <t>제주시 동문시장</t>
+  </si>
+  <si>
     <t>꽃기린 카페</t>
   </si>
   <si>
+    <t>판포리</t>
+  </si>
+  <si>
+    <t>족황상제</t>
+  </si>
+  <si>
+    <t>그초록</t>
+  </si>
+  <si>
+    <t>만세국수삼성혈점</t>
+  </si>
+  <si>
+    <t>컴피하우스</t>
+  </si>
+  <si>
+    <t>복자씨연탄구이</t>
+  </si>
+  <si>
+    <t>제주 조류공원 화조원</t>
+  </si>
+  <si>
+    <t>윗세오름(해발 1700M)</t>
+  </si>
+  <si>
+    <t>이음</t>
+  </si>
+  <si>
+    <t>용두암</t>
+  </si>
+  <si>
+    <t>아쿠아 플라넷 제주 (Aqua Planet JEJU)</t>
+  </si>
+  <si>
+    <t>소보리당로 222</t>
+  </si>
+  <si>
+    <t>제주 구좌읍 세화리</t>
+  </si>
+  <si>
+    <t>스튜디오 쿠나</t>
+  </si>
+  <si>
+    <t>빨간머리몽게스트하우스</t>
+  </si>
+  <si>
+    <t>남원읍 위미리 귤밭</t>
+  </si>
+  <si>
+    <t>제주허브동산</t>
+  </si>
+  <si>
+    <t>슬슬슬로우</t>
+  </si>
+  <si>
+    <t>아부오름</t>
+  </si>
+  <si>
+    <t>볼스카페</t>
+  </si>
+  <si>
+    <t>테쉬폰</t>
+  </si>
+  <si>
+    <t>올레7코스</t>
+  </si>
+  <si>
+    <t>済州島 - チェジュ島</t>
+  </si>
+  <si>
+    <t>상호네숯불구이</t>
+  </si>
+  <si>
+    <t>테디베어뮤지엄</t>
+  </si>
+  <si>
+    <t>서귀포 까망돼지</t>
+  </si>
+  <si>
+    <t>Hamdoek Beach, Jeju Island</t>
+  </si>
+  <si>
+    <t>호텔 몽듀</t>
+  </si>
+  <si>
+    <t>제주도 천지연 폭포</t>
+  </si>
+  <si>
+    <t>모뉴에트</t>
+  </si>
+  <si>
+    <t>JEJU앨리스</t>
+  </si>
+  <si>
+    <t>Ecoland Theme Park Forest Train黃花小火車</t>
+  </si>
+  <si>
     <t>라온더마파크</t>
   </si>
   <si>
-    <t>구좌읍 평대리</t>
+    <t>자매국수 노형점</t>
+  </si>
+  <si>
+    <t>제주 이호해수욕장</t>
+  </si>
+  <si>
+    <t>그리울땐 제주</t>
+  </si>
+  <si>
+    <t>천지연폭포</t>
+  </si>
+  <si>
+    <t>천왕사 (天王寺)</t>
+  </si>
+  <si>
+    <t>초밥충전</t>
+  </si>
+  <si>
+    <t>연정식당</t>
+  </si>
+  <si>
+    <t>Oedolgae Jeju</t>
+  </si>
+  <si>
+    <t>해왓</t>
+  </si>
+  <si>
+    <t>제주서커스월드공연장</t>
+  </si>
+  <si>
+    <t>로컬크랩</t>
+  </si>
+  <si>
+    <t>제주시외버스터미널</t>
+  </si>
+  <si>
+    <t>봄날</t>
+  </si>
+  <si>
+    <t>대우정</t>
+  </si>
+  <si>
+    <t>갈중이</t>
+  </si>
+  <si>
+    <t>밥의정석</t>
+  </si>
+  <si>
+    <t>바닐라파레트</t>
+  </si>
+  <si>
+    <t>한동올레펜션</t>
+  </si>
+  <si>
+    <t>중문색달해변 (Jungmun Saekdal Beach)</t>
+  </si>
+  <si>
+    <t>카페두가시</t>
+  </si>
+  <si>
+    <t>빨간모자마법사</t>
+  </si>
+  <si>
+    <t>따라비오름</t>
+  </si>
+  <si>
+    <t>아도록</t>
+  </si>
+  <si>
+    <t>한담해안산책로</t>
+  </si>
+  <si>
+    <t>Namwon Seogwipo Jeju,South korea</t>
+  </si>
+  <si>
+    <t>칠돈가</t>
+  </si>
+  <si>
+    <t>사라봉근처</t>
+  </si>
+  <si>
+    <t>함덕해변</t>
+  </si>
+  <si>
+    <t>난드르바당</t>
+  </si>
+  <si>
+    <t>Antoinette</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>형제국수</t>
+  </si>
+  <si>
+    <t>애월더선셋</t>
+  </si>
+  <si>
+    <t>제스토리, 바이제주, 제주감성소품</t>
+  </si>
+  <si>
+    <t>Hyatt Regency, Jeju Island</t>
   </si>
   <si>
     <t>제주도 전주횟집</t>
   </si>
   <si>
-    <t>비브레이브 커피 로스터즈</t>
-  </si>
-  <si>
-    <t>로맨틱무브</t>
-  </si>
-  <si>
-    <t>Longlive</t>
-  </si>
-  <si>
-    <t>올레7코스</t>
-  </si>
-  <si>
-    <t>남원읍 신례리</t>
-  </si>
-  <si>
-    <t>윗세오름(해발 1700M)</t>
-  </si>
-  <si>
-    <t>한림항</t>
-  </si>
-  <si>
-    <t>제주 휴애리</t>
-  </si>
-  <si>
-    <t>남원읍 위미리 귤밭</t>
-  </si>
-  <si>
-    <t>칠돈가</t>
-  </si>
-  <si>
-    <t>김녕회관</t>
-  </si>
-  <si>
-    <t>삼미흑돼지</t>
-  </si>
-  <si>
-    <t>테디베어뮤지엄</t>
-  </si>
-  <si>
-    <t>부두식당</t>
-  </si>
-  <si>
-    <t>해왓</t>
-  </si>
-  <si>
-    <t>보엠 - Bohème</t>
-  </si>
-  <si>
-    <t>제주 이호해수욕장</t>
-  </si>
-  <si>
-    <t>Daegu, South Korea</t>
-  </si>
-  <si>
-    <t>호텔 몽듀</t>
-  </si>
-  <si>
-    <t>제주시외버스터미널</t>
-  </si>
-  <si>
-    <t>군산오름</t>
-  </si>
-  <si>
-    <t>평대리 해변</t>
-  </si>
-  <si>
-    <t>서울맛집</t>
-  </si>
-  <si>
-    <t>제주 구좌읍 세화리</t>
-  </si>
-  <si>
-    <t>제주 윗세오름</t>
-  </si>
-  <si>
-    <t>켄싱턴 제주호텔</t>
-  </si>
-  <si>
-    <t>쿠오모제주</t>
-  </si>
-  <si>
-    <t>다다의작은공간</t>
-  </si>
-  <si>
-    <t>모슬 포항</t>
-  </si>
-  <si>
-    <t>박물관이살아있다</t>
-  </si>
-  <si>
-    <t>Antoinette</t>
-  </si>
-  <si>
-    <t>제주허브동산</t>
-  </si>
-  <si>
-    <t>로컬크랩</t>
-  </si>
-  <si>
-    <t>바닐라파레트</t>
-  </si>
-  <si>
-    <t>Cafe148</t>
-  </si>
-  <si>
-    <t>사라봉근처</t>
-  </si>
-  <si>
-    <t>평대우유차</t>
-  </si>
-  <si>
-    <t>판포포구</t>
-  </si>
-  <si>
-    <t>성산일출봉</t>
-  </si>
-  <si>
-    <t>순옥이네명가</t>
-  </si>
-  <si>
-    <t>난드르바당</t>
-  </si>
-  <si>
-    <t>JEJU앨리스</t>
-  </si>
-  <si>
-    <t>카페주비 - JUBI</t>
-  </si>
-  <si>
-    <t>대우정</t>
-  </si>
-  <si>
-    <t>새연교횟집</t>
-  </si>
-  <si>
-    <t>済州島 - チェジュ島</t>
-  </si>
-  <si>
-    <t>용두암</t>
-  </si>
-  <si>
-    <t>Hyatt Regency, Jeju Island</t>
-  </si>
-  <si>
-    <t>Ulsan, South Korea</t>
-  </si>
-  <si>
-    <t>제주돌마을공원</t>
-  </si>
-  <si>
-    <t>하얏트 리젠시 제주ㅣHyatt Regency Jeju</t>
-  </si>
-  <si>
-    <t>용연구름다리</t>
-  </si>
-  <si>
-    <t>함덕해변</t>
-  </si>
-  <si>
-    <t>제스토리, 바이제주, 제주감성소품</t>
-  </si>
-  <si>
-    <t>토스카나호텔</t>
-  </si>
-  <si>
-    <t>빨간모자마법사</t>
-  </si>
-  <si>
-    <t>그초록</t>
-  </si>
-  <si>
-    <t>슬슬슬로우</t>
-  </si>
-  <si>
-    <t>한림칼국수</t>
-  </si>
-  <si>
-    <t>Ecoland Theme Park Forest Train黃花小火車</t>
-  </si>
-  <si>
-    <t>짱구분식</t>
-  </si>
-  <si>
-    <t>문쏘</t>
-  </si>
-  <si>
-    <t>천지연폭포</t>
-  </si>
-  <si>
-    <t>Vadada 바다다</t>
-  </si>
-  <si>
-    <t>제주 서귀포 그릴 데미그라스</t>
-  </si>
-  <si>
-    <t>제주마방목지</t>
-  </si>
-  <si>
-    <t>중문 덤장</t>
-  </si>
-  <si>
-    <t>카페두가시</t>
-  </si>
-  <si>
-    <t>그러므로part.2</t>
-  </si>
-  <si>
-    <t>테쉬폰</t>
-  </si>
-  <si>
-    <t>족황상제</t>
-  </si>
-  <si>
-    <t>신창풍차해안도로</t>
-  </si>
-  <si>
-    <t>중문색달해변 (Jungmun Saekdal Beach)</t>
-  </si>
-  <si>
-    <t>오롯</t>
-  </si>
-  <si>
-    <t>신설오름</t>
-  </si>
-  <si>
-    <t>Osulloc Tea Museum</t>
-  </si>
-  <si>
-    <t>천왕사 (天王寺)</t>
-  </si>
-  <si>
-    <t>컴피하우스</t>
-  </si>
-  <si>
-    <t>문치비</t>
-  </si>
-  <si>
-    <t>김영갑갤러리 두모악</t>
-  </si>
-  <si>
-    <t>Namwon Seogwipo Jeju,South korea</t>
-  </si>
-  <si>
-    <t>그리울땐 제주</t>
-  </si>
-  <si>
-    <t>한담해안산책로</t>
-  </si>
-  <si>
-    <t>제주 조류공원 화조원</t>
-  </si>
-  <si>
-    <t>Salon de Lavant</t>
-  </si>
-  <si>
-    <t>우도</t>
-  </si>
-  <si>
-    <t>초밥충전</t>
-  </si>
-  <si>
-    <t>아부오름</t>
-  </si>
-  <si>
-    <t>선흘리 동백동산</t>
-  </si>
-  <si>
-    <t>판포리</t>
-  </si>
-  <si>
-    <t>카페루핀</t>
-  </si>
-  <si>
-    <t>모뉴에트</t>
-  </si>
-  <si>
-    <t>제주시 동문시장</t>
-  </si>
-  <si>
-    <t>붉은못허브팜 Cafe Redpond 애월본점</t>
-  </si>
-  <si>
-    <t>한동올레펜션</t>
-  </si>
-  <si>
-    <t>블리스찬</t>
-  </si>
-  <si>
-    <t>탐나버거</t>
-  </si>
-  <si>
-    <t>어조횟집</t>
-  </si>
-  <si>
-    <t>외쿡식당</t>
-  </si>
-  <si>
-    <t>애월해안가</t>
-  </si>
-  <si>
-    <t>갈중이</t>
-  </si>
-  <si>
-    <t>목장카페 드르쿰다</t>
-  </si>
-  <si>
-    <t>상호네숯불구이</t>
-  </si>
-  <si>
-    <t>자매국수 노형점</t>
-  </si>
-  <si>
-    <t>앤트러사이트 제주 한림점</t>
-  </si>
-  <si>
-    <t>이호테우해변</t>
-  </si>
-  <si>
-    <t>가시식당</t>
-  </si>
-  <si>
-    <t>2월22일 브런치카페</t>
+    <t>제주김만복</t>
   </si>
   <si>
     <t>토끼썸</t>
   </si>
   <si>
-    <t>볼스카페</t>
-  </si>
-  <si>
-    <t>Hamdoek Beach, Jeju Island</t>
-  </si>
-  <si>
-    <t>이런날엔</t>
-  </si>
-  <si>
-    <t>제주 도두동</t>
-  </si>
-  <si>
-    <t>아도록</t>
-  </si>
-  <si>
-    <t>애월더선셋</t>
-  </si>
-  <si>
-    <t>복자씨연탄구이</t>
-  </si>
-  <si>
-    <t>밥의정석</t>
-  </si>
-  <si>
-    <t>Hotel Alfonso XIII, a Luxury Collection Hotel, Seville</t>
-  </si>
-  <si>
-    <t>다미진횟집</t>
-  </si>
-  <si>
-    <t>제주김만복</t>
-  </si>
-  <si>
-    <t>핏제리아마노</t>
-  </si>
-  <si>
-    <t>모슬포항 만선식당</t>
-  </si>
-  <si>
-    <t>형제국수</t>
-  </si>
-  <si>
-    <t>Jeju_Gimnyeong_Maze_Park</t>
-  </si>
-  <si>
-    <t>훈이네고사리육개장</t>
-  </si>
-  <si>
-    <t>만세국수삼성혈점</t>
-  </si>
-  <si>
-    <t>스튜디오 쿠나</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>제주시 아라동</t>
-  </si>
-  <si>
-    <t>우동가게</t>
-  </si>
-  <si>
-    <t>황우지해안</t>
-  </si>
-  <si>
-    <t>제주도 천지연 폭포</t>
-  </si>
-  <si>
-    <t>그계절</t>
-  </si>
-  <si>
-    <t>제주도 한경면</t>
-  </si>
-  <si>
-    <t>영육일삼</t>
-  </si>
-  <si>
-    <t>따라비오름</t>
-  </si>
-  <si>
-    <t>백약이 오름</t>
-  </si>
-  <si>
-    <t>말젯문</t>
-  </si>
-  <si>
-    <t>이음</t>
-  </si>
-  <si>
-    <t>Hotel NANTA 호텔 난타</t>
-  </si>
-  <si>
-    <t>광안리 해수욕장 - 廣安里海水浴場 GwangalliBeach, Busan, South Korea</t>
-  </si>
-  <si>
-    <t>제주서커스월드공연장</t>
-  </si>
-  <si>
-    <t>서귀포 까망돼지</t>
-  </si>
-  <si>
-    <t>아쿠아 플라넷 제주 (Aqua Planet JEJU)</t>
-  </si>
-  <si>
-    <t>가시아방</t>
-  </si>
-  <si>
-    <t>Teddy Bear Museum - 제주 테디베어뮤지엄</t>
-  </si>
-  <si>
-    <t>성산갯마을식당</t>
-  </si>
-  <si>
-    <t>천제연폭포</t>
-  </si>
-  <si>
-    <t>함덕호랑이</t>
-  </si>
-  <si>
-    <t>빨간머리몽게스트하우스</t>
-  </si>
-  <si>
-    <t>연정식당</t>
-  </si>
-  <si>
-    <t>봄날</t>
-  </si>
-  <si>
-    <t>Oedolgae Jeju</t>
-  </si>
-  <si>
-    <t>쌀다방</t>
-  </si>
-  <si>
-    <t>센트로</t>
-  </si>
-  <si>
-    <t>뉴저지카페</t>
-  </si>
-  <si>
-    <t>성읍민속마을</t>
-  </si>
-  <si>
-    <t>이정의댁</t>
-  </si>
-  <si>
-    <t>하도리1091</t>
-  </si>
-  <si>
-    <t>서귀포흑돈</t>
-  </si>
-  <si>
-    <t>CAFE E.P.L</t>
-  </si>
-  <si>
-    <t>대정읍</t>
-  </si>
-  <si>
-    <t>테지움 제주</t>
-  </si>
-  <si>
-    <t>지오반니</t>
-  </si>
-  <si>
-    <t>소보리당로 222</t>
-  </si>
-  <si>
-    <t>이중섭 거리</t>
+    <t>삼공주회센터</t>
+  </si>
+  <si>
+    <t>숨비아일랜드</t>
+  </si>
+  <si>
+    <t>빌라드아토</t>
+  </si>
+  <si>
+    <t>Uncommon Table</t>
+  </si>
+  <si>
+    <t>모메든식당</t>
+  </si>
+  <si>
+    <t>이게밥도둑</t>
+  </si>
+  <si>
+    <t>쉐프부부</t>
+  </si>
+  <si>
+    <t>Bongcheon-dong</t>
+  </si>
+  <si>
+    <t>지금여기</t>
+  </si>
+  <si>
+    <t>홍키호테</t>
+  </si>
+  <si>
+    <t>타쿠마 - Takuma</t>
+  </si>
+  <si>
+    <t>카페모리&amp;베이커스트리트</t>
+  </si>
+  <si>
+    <t>헤이브라더</t>
+  </si>
+  <si>
+    <t>올레안뜰</t>
+  </si>
+  <si>
+    <t>젠하이드어웨이</t>
+  </si>
+  <si>
+    <t>소우</t>
+  </si>
+  <si>
+    <t>Gwakji Beaches</t>
+  </si>
+  <si>
+    <t>비스트로낭</t>
+  </si>
+  <si>
+    <t>Salon De 소자38</t>
+  </si>
+  <si>
+    <t>수제홍과일모찌하귀점</t>
+  </si>
+  <si>
+    <t>충남 대천 해수욕장 에서</t>
+  </si>
+  <si>
+    <t>Jamae Guksu</t>
+  </si>
+  <si>
+    <t>도라지식당</t>
+  </si>
+  <si>
+    <t>호박다방</t>
+  </si>
+  <si>
+    <t>중문 단지 삼원정</t>
+  </si>
+  <si>
+    <t>마모루</t>
+  </si>
+  <si>
+    <t>라비에 와인비스트로</t>
+  </si>
+  <si>
+    <t>카페바띠</t>
+  </si>
+  <si>
+    <t>리틀이태리 비스트로</t>
+  </si>
+  <si>
+    <t>제주엠리조트</t>
+  </si>
+  <si>
+    <t>섶섬해녀할망카페</t>
+  </si>
+  <si>
+    <t>풍미독서</t>
+  </si>
+  <si>
+    <t>털보네고양이</t>
+  </si>
+  <si>
+    <t>가드망제</t>
+  </si>
+  <si>
+    <t>마구로쇼쿠도</t>
+  </si>
+  <si>
+    <t>쿠쿠아림</t>
+  </si>
+  <si>
+    <t>바굥식당</t>
+  </si>
+  <si>
+    <t>어라운드 폴리 Around Follie</t>
+  </si>
+  <si>
+    <t>시루애월 소길점</t>
+  </si>
+  <si>
+    <t>제주시동문시장</t>
+  </si>
+  <si>
+    <t>바람코지 게스트하우스&amp;카페</t>
+  </si>
+  <si>
+    <t>삼다버거</t>
+  </si>
+  <si>
+    <t>마포식당</t>
+  </si>
+  <si>
+    <t>한모살식당</t>
+  </si>
+  <si>
+    <t>어반가라지</t>
+  </si>
+  <si>
+    <t>홍대개미제주</t>
+  </si>
+  <si>
+    <t>카페송키</t>
+  </si>
+  <si>
+    <t>미미본가</t>
+  </si>
+  <si>
+    <t>바당지기식당</t>
+  </si>
+  <si>
+    <t>서귀포 기억나는집</t>
+  </si>
+  <si>
+    <t>버드나무집</t>
+  </si>
+  <si>
+    <t>Coco Mama</t>
+  </si>
+  <si>
+    <t>소금바치 순이네</t>
+  </si>
+  <si>
+    <t>아산 음봉</t>
+  </si>
+  <si>
+    <t>하노이안브라더스</t>
+  </si>
+  <si>
+    <t>군산 정상</t>
+  </si>
+  <si>
+    <t>반딧불 한담</t>
+  </si>
+  <si>
+    <t>과일애</t>
+  </si>
+  <si>
+    <t>제주 사랑분식</t>
+  </si>
+  <si>
+    <t>제주한면가 濟州韓麵家</t>
+  </si>
+  <si>
+    <t>못생김</t>
+  </si>
+  <si>
+    <t>중문국수나라</t>
+  </si>
+  <si>
+    <t>Cafe멘도롱</t>
+  </si>
+  <si>
+    <t>드렁큰디제이</t>
+  </si>
+  <si>
+    <t>협재칼국수</t>
+  </si>
+  <si>
+    <t>시민갈비</t>
+  </si>
+  <si>
+    <t>우진해장국</t>
+  </si>
+  <si>
+    <t>로드129</t>
+  </si>
+  <si>
+    <t>자갈자갈</t>
+  </si>
+  <si>
+    <t>팀버 커피 제주</t>
+  </si>
+  <si>
+    <t>제주시</t>
+  </si>
+  <si>
+    <t>공천포 식당</t>
+  </si>
+  <si>
+    <t>해바라기 분식</t>
+  </si>
+  <si>
+    <t>해비치호텔&amp;리조트 - Haevichi hotel &amp; resort</t>
+  </si>
+  <si>
+    <t>벵디</t>
+  </si>
+  <si>
+    <t>Cafe카페인</t>
+  </si>
+  <si>
+    <t>봉개동</t>
+  </si>
+  <si>
+    <t>베이크샵스니프 bakeshop sniff</t>
+  </si>
+  <si>
+    <t>쭈니창고</t>
+  </si>
+  <si>
+    <t>장복호</t>
+  </si>
+  <si>
+    <t>모이세해장국</t>
+  </si>
+  <si>
+    <t>제주인의밥상</t>
+  </si>
+  <si>
+    <t>하례리 망장포구</t>
+  </si>
+  <si>
+    <t>제주시 조천읍 와선로 206</t>
+  </si>
+  <si>
+    <t>오조해녀의집</t>
+  </si>
+  <si>
+    <t>쉼표</t>
+  </si>
+  <si>
+    <t>독개물항</t>
+  </si>
+  <si>
+    <t>Mansion37.5</t>
+  </si>
+  <si>
+    <t>월정곰닭</t>
+  </si>
+  <si>
+    <t>포팩토리</t>
+  </si>
+  <si>
+    <t>탑동마차</t>
+  </si>
+  <si>
+    <t>1342틈</t>
+  </si>
+  <si>
+    <t>백리향백반</t>
+  </si>
+  <si>
+    <t>푸릇프릍</t>
+  </si>
+  <si>
+    <t>북촌플레이스</t>
+  </si>
+  <si>
+    <t>마레벤또</t>
+  </si>
+  <si>
+    <t>U-do Bong( 우도봉)</t>
+  </si>
+  <si>
+    <t>동광 pâtisserie '東光'</t>
+  </si>
+  <si>
+    <t>오메오메동문시장점</t>
+  </si>
+  <si>
+    <t>도토리키친</t>
+  </si>
+  <si>
+    <t>지붕위제주바다</t>
+  </si>
+  <si>
+    <t>연화키친</t>
+  </si>
+  <si>
+    <t>제주시농협하나로마트</t>
+  </si>
+  <si>
+    <t>돈테일러익스프레</t>
+  </si>
+  <si>
+    <t>서귀동 298-5 '세계의 가정식'</t>
+  </si>
+  <si>
+    <t>훈남횟집</t>
+  </si>
+  <si>
+    <t>제주시청</t>
+  </si>
+  <si>
+    <t>702키친</t>
+  </si>
+  <si>
+    <t>바라크라</t>
+  </si>
+  <si>
+    <t>제주도청</t>
+  </si>
+  <si>
+    <t>Bonte museum</t>
+  </si>
+  <si>
+    <t>제주 팜스빌리지</t>
+  </si>
+  <si>
+    <t>김녕장</t>
+  </si>
+  <si>
+    <t>서귀포 워터월드</t>
+  </si>
+  <si>
+    <t>오설록</t>
+  </si>
+  <si>
+    <t>상효원 수목원</t>
+  </si>
+  <si>
+    <t>제주워터월드/감귤노천탕</t>
+  </si>
+  <si>
+    <t>애월해안도로</t>
+  </si>
+  <si>
+    <t>투썸플레이스 제주애월한담점</t>
+  </si>
+  <si>
+    <t>유민 아르누보 콜렉션</t>
+  </si>
+  <si>
+    <t>몽키비치</t>
+  </si>
+  <si>
+    <t>안녕, 육지사람</t>
+  </si>
+  <si>
+    <t>제주롯데시네마</t>
+  </si>
+  <si>
+    <t>Soror</t>
+  </si>
+  <si>
+    <t>신창해안도로</t>
+  </si>
+  <si>
+    <t>다이브스테이</t>
+  </si>
+  <si>
+    <t>저녁정원</t>
+  </si>
+  <si>
+    <t>금악리 제주힐링리조트</t>
+  </si>
+  <si>
+    <t>고근산정상</t>
+  </si>
+  <si>
+    <t>효돈마을</t>
+  </si>
+  <si>
+    <t>한화아쿠아넷</t>
+  </si>
+  <si>
+    <t>Volskafé</t>
+  </si>
+  <si>
+    <t>Maxim 모카다방</t>
+  </si>
+  <si>
+    <t>서건도</t>
+  </si>
+  <si>
+    <t>외돌개</t>
+  </si>
+  <si>
+    <t>성산일출봉 코앞 쉼터</t>
+  </si>
+  <si>
+    <t>Seosan</t>
+  </si>
+  <si>
+    <t>에코그린리조트</t>
+  </si>
+  <si>
+    <t>구엄리 돌염전</t>
+  </si>
+  <si>
+    <t>Ramada Plaza Jeju</t>
+  </si>
+  <si>
+    <t>골목카페 옥수</t>
+  </si>
+  <si>
+    <t>해물뚝배기전문 재암식당</t>
+  </si>
+  <si>
+    <t>블루마린하우스</t>
+  </si>
+  <si>
+    <t>고기마씸</t>
+  </si>
+  <si>
+    <t>협재술시</t>
+  </si>
+  <si>
+    <t>Saeyeon Bridge, Jeju Island</t>
+  </si>
+  <si>
+    <t>테라로사-이사랑</t>
+  </si>
+  <si>
+    <t>구좌상회</t>
+  </si>
+  <si>
+    <t>깡촌흑돼지</t>
+  </si>
+  <si>
+    <t>개똥이네 동물원</t>
+  </si>
+  <si>
+    <t>제주도 용두암</t>
+  </si>
+  <si>
+    <t>중문 마린파크 퍼시픽랜드</t>
+  </si>
+  <si>
+    <t>Oslob, Cebu</t>
+  </si>
+  <si>
+    <t>十五夜 siboya 십오야</t>
+  </si>
+  <si>
+    <t>폴레폴레게스트하우스 -Polepole Guesthouse in Jeju</t>
+  </si>
+  <si>
+    <t>Ocean Suites Jeju Hotel</t>
+  </si>
+  <si>
+    <t>전주콩나물국밥</t>
+  </si>
+  <si>
+    <t>박물관은 살아있다 제주 중문</t>
+  </si>
+  <si>
+    <t>명진전복</t>
+  </si>
+  <si>
+    <t>헤이미쉬제주_제주독채펜션</t>
+  </si>
+  <si>
+    <t>하도해변</t>
+  </si>
+  <si>
+    <t>송당리 풍림다방</t>
+  </si>
+  <si>
+    <t>중문관광단지 (Jungmun Tourism Complex)</t>
+  </si>
+  <si>
+    <t>호연스테이</t>
+  </si>
+  <si>
+    <t>한성식당</t>
+  </si>
+  <si>
+    <t>제주항공</t>
+  </si>
+  <si>
+    <t>포근한우리집</t>
+  </si>
+  <si>
+    <t>스물다섯</t>
+  </si>
+  <si>
+    <t>Cafe가호</t>
+  </si>
+  <si>
+    <t>카페소금</t>
+  </si>
+  <si>
+    <t>비양도 해녀촌</t>
+  </si>
+  <si>
+    <t>네이처트레일</t>
+  </si>
+  <si>
+    <t>반디앤로제이</t>
+  </si>
+  <si>
+    <t>카페라능</t>
+  </si>
+  <si>
+    <t>대구국제공항</t>
+  </si>
+  <si>
+    <t>이중섭 미술관</t>
+  </si>
+  <si>
+    <t>오운커피</t>
+  </si>
+  <si>
+    <t>타시텔레</t>
+  </si>
+  <si>
+    <t>사락</t>
+  </si>
+  <si>
+    <t>모던하우스 제주점</t>
+  </si>
+  <si>
+    <t>카페하도섬/엠스테이펜션</t>
+  </si>
+  <si>
+    <t>돈사돈중문점</t>
+  </si>
+  <si>
+    <t>썬앤문리조트</t>
+  </si>
+  <si>
+    <t>73st</t>
+  </si>
+  <si>
+    <t>서귀포 칼호텔 (KAL Hotel Seogwipo)</t>
+  </si>
+  <si>
+    <t>성산포</t>
+  </si>
+  <si>
+    <t>제주카페 스르륵</t>
+  </si>
+  <si>
+    <t>나주혁신도시</t>
+  </si>
+  <si>
+    <t>playce</t>
+  </si>
+  <si>
+    <t>하늘고래</t>
+  </si>
+  <si>
+    <t>신천목장</t>
+  </si>
+  <si>
+    <t>섭지코지 (Seopjikoji)</t>
+  </si>
+  <si>
+    <t>제주좋은날</t>
+  </si>
+  <si>
+    <t>호끌락80번지</t>
+  </si>
+  <si>
+    <t>벵디1967</t>
+  </si>
+  <si>
+    <t>우도 비양도</t>
+  </si>
+  <si>
+    <t>비싸이드엠,beside-M</t>
+  </si>
+  <si>
+    <t>제주초가집 곱들락</t>
+  </si>
+  <si>
+    <t>헤밍웨이 하우스</t>
+  </si>
+  <si>
+    <t>조천읍 북촌리</t>
+  </si>
+  <si>
+    <t>인공위성 제주</t>
+  </si>
+  <si>
+    <t>제주도립미술관</t>
+  </si>
+  <si>
+    <t>협재</t>
+  </si>
+  <si>
+    <t>제주인에이에이</t>
+  </si>
+  <si>
+    <t>제주도 표선</t>
+  </si>
+  <si>
+    <t>네이처캔바스</t>
+  </si>
+  <si>
+    <t>머스태쉬커피/머스태쉬하우스</t>
+  </si>
+  <si>
+    <t>Paz</t>
+  </si>
+  <si>
+    <t>마담제 게스트하우스</t>
+  </si>
+  <si>
+    <t>단디501</t>
+  </si>
+  <si>
+    <t>제주 성산읍</t>
+  </si>
+  <si>
+    <t>Kairos jeju</t>
+  </si>
+  <si>
+    <t>방주교회</t>
+  </si>
+  <si>
+    <t>카이로스 제주</t>
+  </si>
+  <si>
+    <t>TheFirst70 Hotel</t>
+  </si>
+  <si>
+    <t>ECOLAND theme park</t>
+  </si>
+  <si>
+    <t>켄싱턴리조트 서귀포</t>
+  </si>
+  <si>
+    <t>국수의 전설</t>
+  </si>
+  <si>
+    <t>시리우스 호텔</t>
+  </si>
+  <si>
+    <t>나도섬이다</t>
+  </si>
+  <si>
+    <t>Howard Johnson Jeju Yeondong Hotel - 하워드존슨 제주 연동 호텔</t>
+  </si>
+  <si>
+    <t>제주김만복본점</t>
+  </si>
+  <si>
+    <t>이호테우 목마등대</t>
+  </si>
+  <si>
+    <t>BUTTON STAY 단추스테이 게스트하우스</t>
+  </si>
+  <si>
+    <t>고불락 식당</t>
+  </si>
+  <si>
+    <t>제주조천스위스마을</t>
+  </si>
+  <si>
+    <t>수망일기</t>
+  </si>
+  <si>
+    <t>올레 6코스 (Olle Route 6)</t>
+  </si>
+  <si>
+    <t>사우스바운더 Southbounder Brewery</t>
+  </si>
+  <si>
+    <t>차귀도</t>
+  </si>
+  <si>
+    <t>까망고띠</t>
+  </si>
+  <si>
+    <t>함덕 다래향</t>
+  </si>
+  <si>
+    <t>돈사촌</t>
+  </si>
+  <si>
+    <t>꽃이다카페</t>
+  </si>
+  <si>
+    <t>세종시</t>
+  </si>
+  <si>
+    <t>잔향</t>
+  </si>
+  <si>
+    <t>시루애월카페</t>
+  </si>
+  <si>
+    <t>꽃밥</t>
+  </si>
+  <si>
+    <t>Cultured</t>
+  </si>
+  <si>
+    <t>빌리엔젤 제주노형점</t>
+  </si>
+  <si>
+    <t>공업탑</t>
+  </si>
+  <si>
+    <t>고로케야</t>
+  </si>
+  <si>
+    <t>Shilla Stay</t>
+  </si>
+  <si>
+    <t>내콩가</t>
+  </si>
+  <si>
+    <t>스테이굿무드</t>
+  </si>
+  <si>
+    <t>해심가든</t>
+  </si>
+  <si>
+    <t>수카사</t>
+  </si>
+  <si>
+    <t>제주 월령선인장 군락지</t>
+  </si>
+  <si>
+    <t>Bronx, New York</t>
+  </si>
+  <si>
+    <t>The Retrieve</t>
+  </si>
+  <si>
+    <t>제주 이호테우 해변</t>
+  </si>
+  <si>
+    <t>여름문구사</t>
+  </si>
+  <si>
+    <t>객의하우스</t>
+  </si>
+  <si>
+    <t>섭지코지 등대</t>
+  </si>
+  <si>
+    <t>더아트스테이호텔-The Artstay Hotel</t>
+  </si>
+  <si>
+    <t>MBC</t>
+  </si>
+  <si>
+    <t>오렌지블루스</t>
+  </si>
+  <si>
+    <t>제주도 휘닉스아일랜드</t>
+  </si>
+  <si>
+    <t>지붕 위 제주바다</t>
+  </si>
+  <si>
+    <t>Cafe delmundo</t>
+  </si>
+  <si>
+    <t>금능반지하</t>
+  </si>
+  <si>
+    <t>달사막</t>
+  </si>
+  <si>
+    <t>절물 자연 휴양림</t>
+  </si>
+  <si>
+    <t>Tj Guesthouse</t>
+  </si>
+  <si>
+    <t>Gimpo International Airport - 金浦国际机场 - 김포공항</t>
+  </si>
+  <si>
+    <t>카페어떤오후</t>
+  </si>
+  <si>
+    <t>협재 수우동</t>
+  </si>
+  <si>
+    <t>M-STAY / 엠스테이</t>
+  </si>
+  <si>
+    <t>La Tortuga</t>
+  </si>
+  <si>
+    <t>비긴어게인펜션</t>
+  </si>
+  <si>
+    <t>바램목장&amp;카페</t>
+  </si>
+  <si>
+    <t>산방굴사 (Sanbanggulsa Temple 山房窟寺)</t>
+  </si>
+  <si>
+    <t>종달스토리 게스트하우스</t>
+  </si>
+  <si>
+    <t>색달식당</t>
+  </si>
+  <si>
+    <t>책다방</t>
+  </si>
+  <si>
+    <t>동문시장</t>
+  </si>
+  <si>
+    <t>표선리</t>
+  </si>
+  <si>
+    <t>자구리 카페 몬들락 Cafe Mondeulrak</t>
+  </si>
+  <si>
+    <t>사라오름 산정호수</t>
+  </si>
+  <si>
+    <t>제주도 고근산</t>
+  </si>
+  <si>
+    <t>제주마로 펜션</t>
+  </si>
+  <si>
+    <t>책방무사</t>
+  </si>
+  <si>
+    <t>항파두리 항몽유적지</t>
+  </si>
+  <si>
+    <t>블루라군다이브-bluelagoondive</t>
+  </si>
+  <si>
+    <t>Hwasun</t>
+  </si>
+  <si>
+    <t>베케</t>
+  </si>
+  <si>
+    <t>제주도 하늘 위</t>
+  </si>
+  <si>
+    <t>제주맑음</t>
+  </si>
+  <si>
+    <t>스테이 비갠오후</t>
+  </si>
+  <si>
+    <t>제주 반디앤로제이 펜션 &amp; 플라워브런치카페</t>
+  </si>
+  <si>
+    <t>종달리 해변</t>
+  </si>
+  <si>
+    <t>제주돌문화공원</t>
+  </si>
+  <si>
+    <t>피규어뮤지엄제주</t>
+  </si>
+  <si>
+    <t>한동리 화수목</t>
+  </si>
+  <si>
+    <t>Enough, 이너프</t>
+  </si>
+  <si>
+    <t>함덕 Fishya</t>
+  </si>
+  <si>
+    <t>표선 해비치해수욕장</t>
+  </si>
+  <si>
+    <t>게으른날</t>
+  </si>
+  <si>
+    <t>에코랜드테마파크</t>
+  </si>
+  <si>
+    <t>원더먼트제주</t>
+  </si>
+  <si>
+    <t>시월의리브라</t>
+  </si>
+  <si>
+    <t>카페닐스</t>
+  </si>
+  <si>
+    <t>평화통일불사리탑사</t>
+  </si>
+  <si>
+    <t>담앤루리조트</t>
+  </si>
+  <si>
+    <t>한라산 정상 해발 1,950m</t>
+  </si>
+  <si>
+    <t>우리두리게스트하우스</t>
+  </si>
+  <si>
+    <t>목수금토일</t>
+  </si>
+  <si>
+    <t>Gimpo International Airport Station</t>
+  </si>
+  <si>
+    <t>제주국제공항 활주로 (Jeju Airport Runway)</t>
+  </si>
+  <si>
+    <t>정동진</t>
+  </si>
+  <si>
+    <t>수제홍과일모찌</t>
+  </si>
+  <si>
+    <t>돌마을공원</t>
+  </si>
+  <si>
+    <t>서머셋 제주신화월드</t>
+  </si>
+  <si>
+    <t>아름다운제주여행</t>
+  </si>
+  <si>
+    <t>노리매</t>
+  </si>
+  <si>
+    <t>탑동해변공연장</t>
+  </si>
+  <si>
+    <t>산방산</t>
+  </si>
+  <si>
+    <t>제주세계자연유산센터</t>
+  </si>
+  <si>
+    <t>Suweolbong Trekking</t>
+  </si>
+  <si>
+    <t>제주 나인브릿지 CC</t>
+  </si>
+  <si>
+    <t>제주도 부영리조트</t>
+  </si>
+  <si>
+    <t>화순금모래해변</t>
+  </si>
+  <si>
+    <t>연북정</t>
+  </si>
+  <si>
+    <t>제주신라면세점</t>
+  </si>
+  <si>
+    <t>니모메빈티지라운지</t>
+  </si>
+  <si>
+    <t>나인브릿지</t>
+  </si>
+  <si>
+    <t>월정스캔들</t>
+  </si>
+  <si>
+    <t>노형 수목원가는길</t>
+  </si>
+  <si>
+    <t>저지예술인마을</t>
+  </si>
+  <si>
+    <t>기원뚝배기</t>
+  </si>
+  <si>
+    <t>산방산 (Sanbangsan)</t>
+  </si>
+  <si>
+    <t>Ocean Suite Jeju Hotel (오션스위츠제주호텔)</t>
+  </si>
+  <si>
+    <t>제주오리엔탈호텔</t>
+  </si>
+  <si>
+    <t>제주웰컴센터</t>
+  </si>
+  <si>
+    <t>새별오름 정상</t>
+  </si>
+  <si>
+    <t>돼지촌</t>
+  </si>
+  <si>
+    <t>에코랜드 라벤다앤그린티로즈가든역</t>
+  </si>
+  <si>
+    <t>Jeju National University</t>
+  </si>
+  <si>
+    <t>Jeju Island, South Korea - 제주도</t>
+  </si>
+  <si>
+    <t>웃뜨르</t>
+  </si>
+  <si>
+    <t>대굴대굴굴구이</t>
+  </si>
+  <si>
+    <t>용담해안도로</t>
+  </si>
+  <si>
+    <t>정방폭포가 보이는 암벽위</t>
+  </si>
+  <si>
+    <t>카페2472</t>
+  </si>
+  <si>
+    <t>쪼끌락 cafe</t>
+  </si>
+  <si>
+    <t>동한두기</t>
+  </si>
+  <si>
+    <t>더스파</t>
+  </si>
+  <si>
+    <t>제주중앙로상점가</t>
+  </si>
+  <si>
+    <t>환상숲곶자왈공원</t>
+  </si>
+  <si>
+    <t>휘슬락호텔</t>
+  </si>
+  <si>
+    <t>올레길 5코스</t>
+  </si>
+  <si>
+    <t>닭머르</t>
+  </si>
+  <si>
+    <t>미나마라</t>
+  </si>
+  <si>
+    <t>성산수구레국밥</t>
+  </si>
+  <si>
+    <t>탑동광장편의점</t>
+  </si>
+  <si>
+    <t>제주 생각하는 정원</t>
+  </si>
+  <si>
+    <t>Dammann Frères_다만프레르_제주신화점</t>
+  </si>
+  <si>
+    <t>제주대학교 교양강의동</t>
+  </si>
+  <si>
+    <t>돌담너머바다</t>
+  </si>
+  <si>
+    <t>강식당</t>
+  </si>
+  <si>
+    <t>성수족발</t>
+  </si>
+  <si>
+    <t>덕수하루펜션</t>
+  </si>
+  <si>
+    <t>바다의집</t>
+  </si>
+  <si>
+    <t>카페 호꼼</t>
+  </si>
+  <si>
+    <t>스모크하우스인구억</t>
+  </si>
+  <si>
+    <t>전라북도 군산 경암동 철길마을</t>
+  </si>
+  <si>
+    <t>속초 아바이마을</t>
+  </si>
+  <si>
+    <t>한림 칠돈가</t>
+  </si>
+  <si>
+    <t>제주집</t>
+  </si>
+  <si>
+    <t>Jungle book by Alice</t>
+  </si>
+  <si>
+    <t>문섬</t>
+  </si>
+  <si>
+    <t>부산 맛집 여기</t>
+  </si>
+  <si>
+    <t>LOTTE City Hotel Jeju 롯데시티호텔제주</t>
+  </si>
+  <si>
+    <t>제주몬트락</t>
+  </si>
+  <si>
+    <t>청사포 수민이네</t>
+  </si>
+  <si>
+    <t>옥계휴게소</t>
+  </si>
+  <si>
+    <t>스타양곱창</t>
+  </si>
+  <si>
+    <t>선화동106-1</t>
+  </si>
+  <si>
+    <t>제주 운정이네</t>
+  </si>
+  <si>
+    <t>필립헤어</t>
+  </si>
+  <si>
+    <t>Ulsan, Korea</t>
+  </si>
+  <si>
+    <t>제주도 한림</t>
+  </si>
+  <si>
+    <t>착한스시</t>
+  </si>
+  <si>
+    <t>협제 혜변</t>
+  </si>
+  <si>
+    <t>보목</t>
+  </si>
+  <si>
+    <t>제주아리아</t>
+  </si>
+  <si>
+    <t>한림공원 Hallimpark</t>
+  </si>
+  <si>
+    <t>Saturdayisland</t>
+  </si>
+  <si>
+    <t>서귀포 이마트</t>
+  </si>
+  <si>
+    <t>Cafe Koomda</t>
+  </si>
+  <si>
+    <t>Seoul, Korea</t>
+  </si>
+  <si>
+    <t>한라생태숲</t>
+  </si>
+  <si>
+    <t>제주아트리움"비밀의그림자"공연</t>
+  </si>
+  <si>
+    <t>관덕정</t>
+  </si>
+  <si>
+    <t>알뜨르프로젝트2018</t>
+  </si>
+  <si>
+    <t>엉또폭포</t>
+  </si>
+  <si>
+    <t>유리의성과마법의숲</t>
+  </si>
+  <si>
+    <t>동문로터리</t>
+  </si>
+  <si>
+    <t>제주여행 가야밀면</t>
+  </si>
+  <si>
+    <t>접대 - 저번에 우리가 만났던 그때</t>
+  </si>
+  <si>
+    <t>광안리 앙상블</t>
+  </si>
+  <si>
+    <t>윈드스톤</t>
+  </si>
+  <si>
+    <t>Sensō-ji</t>
+  </si>
+  <si>
+    <t>용두암해변</t>
+  </si>
+  <si>
+    <t>날것</t>
+  </si>
+  <si>
+    <t>큰엉전망대쉼터</t>
+  </si>
+  <si>
+    <t>Cafe기억해</t>
+  </si>
+  <si>
+    <t>사계여행</t>
+  </si>
+  <si>
+    <t>스타벅스 제주성산dt점</t>
+  </si>
+  <si>
+    <t>Maison GLAD Jeju - 메종글래드 제주</t>
+  </si>
+  <si>
+    <t>호텔 아이엠</t>
+  </si>
+  <si>
+    <t>제주프레임스파빌</t>
+  </si>
+  <si>
+    <t>오샹띠</t>
+  </si>
+  <si>
+    <t>서귀포향토오일장</t>
+  </si>
+  <si>
+    <t>1158 Cafe</t>
+  </si>
+  <si>
+    <t>동박낭</t>
+  </si>
+  <si>
+    <t>Marevo Resort / 마레보 리조트</t>
+  </si>
+  <si>
+    <t>김녕 앞바다</t>
+  </si>
+  <si>
+    <t>Segovia, Spain</t>
+  </si>
+  <si>
+    <t>구좌상회작업실</t>
+  </si>
+  <si>
+    <t>가시아방국수</t>
+  </si>
+  <si>
+    <t>오드랑베이커리</t>
+  </si>
+  <si>
+    <t>채점석빵집</t>
+  </si>
+  <si>
+    <t>신풍목장</t>
+  </si>
+  <si>
+    <t>요요무문</t>
+  </si>
+  <si>
+    <t>제주도 하도리</t>
+  </si>
+  <si>
+    <t>바보까페</t>
+  </si>
+  <si>
+    <t>우도 하고수동해수욕장</t>
+  </si>
+  <si>
+    <t>렛츠런팜제주</t>
+  </si>
+  <si>
+    <t>제주시도두항</t>
+  </si>
+  <si>
+    <t>서귀포 법환포구</t>
+  </si>
+  <si>
+    <t>Jeju Starbucks 용담dt</t>
+  </si>
+  <si>
+    <t>외도동</t>
+  </si>
+  <si>
+    <t>순덕이네해산물장터</t>
+  </si>
+  <si>
+    <t>한복입는 선흘집</t>
+  </si>
+  <si>
+    <t>돈물국수</t>
+  </si>
+  <si>
+    <t>덕인당 소락</t>
+  </si>
+  <si>
+    <t>무수천계곡</t>
+  </si>
+  <si>
+    <t>제주시 화북동</t>
+  </si>
+  <si>
+    <t>제주거울미로 이상한나라의앨리스</t>
+  </si>
+  <si>
+    <t>Arc de Triomphe</t>
+  </si>
+  <si>
+    <t>피규어 뮤지엄 제주  Figure Museum Jeju</t>
+  </si>
+  <si>
+    <t>아날로그감귤밭</t>
+  </si>
+  <si>
+    <t>황궁쟁반짜장</t>
+  </si>
+  <si>
+    <t>Hallasan</t>
+  </si>
+  <si>
+    <t>노형로터리</t>
+  </si>
+  <si>
+    <t>금바리</t>
+  </si>
+  <si>
+    <t>건축카페 - 섶섬이보이는</t>
+  </si>
+  <si>
+    <t>도두항</t>
+  </si>
+  <si>
+    <t>서양차관</t>
+  </si>
+  <si>
+    <t>Paju</t>
+  </si>
+  <si>
+    <t>Shimo-kitazawa Station</t>
+  </si>
+  <si>
+    <t>스트라이크볼링센터</t>
+  </si>
+  <si>
+    <t>종가전복</t>
+  </si>
+  <si>
+    <t>서귀포잠수함</t>
+  </si>
+  <si>
+    <t>석부작테마공원</t>
+  </si>
+  <si>
+    <t>와흘리</t>
+  </si>
+  <si>
+    <t>초콜릿랜드 / Chocolate Land</t>
+  </si>
+  <si>
+    <t>Yacht Tour Shangri-La</t>
+  </si>
+  <si>
+    <t>정방 폭포</t>
+  </si>
+  <si>
+    <t>관음사</t>
+  </si>
+  <si>
+    <t>제주비치호텔 함덕</t>
+  </si>
+  <si>
+    <t>Sangumburi Crater</t>
+  </si>
+  <si>
+    <t>미도리</t>
+  </si>
+  <si>
+    <t>서귀포의료원</t>
+  </si>
+  <si>
+    <t>Hibi &amp; Kohaku</t>
+  </si>
+  <si>
+    <t>호텔위드제주</t>
+  </si>
+  <si>
+    <t>산천단</t>
+  </si>
+  <si>
+    <t>Shmonga</t>
+  </si>
+  <si>
+    <t>쉬리의 언덕</t>
+  </si>
+  <si>
+    <t>코코몽 에코랜드</t>
+  </si>
+  <si>
+    <t>올레길</t>
+  </si>
+  <si>
+    <t>귀덕1리</t>
+  </si>
+  <si>
+    <t>보롬왓</t>
+  </si>
+  <si>
+    <t>랍스터빈_jeju</t>
+  </si>
+  <si>
+    <t>제주하귀휴먼시아</t>
+  </si>
+  <si>
+    <t>제주베니스랜드</t>
+  </si>
+  <si>
+    <t>고성리</t>
+  </si>
+  <si>
+    <t>더본호텔</t>
+  </si>
+  <si>
+    <t>Málaga, Spain</t>
+  </si>
+  <si>
+    <t>화북1동</t>
+  </si>
+  <si>
+    <t>자연뜨락</t>
+  </si>
+  <si>
+    <t>비양도</t>
+  </si>
+  <si>
+    <t>제주도가는 비행기 안</t>
+  </si>
+  <si>
+    <t>제주 천제연폭포</t>
+  </si>
+  <si>
+    <t>우도 (Udo / 牛島)</t>
+  </si>
+  <si>
+    <t>Teseum</t>
+  </si>
+  <si>
+    <t>비자림 (Bija Forest, 榧子林)</t>
+  </si>
+  <si>
+    <t>제주함덕 해수욕장</t>
+  </si>
+  <si>
+    <t>GD Cafe</t>
+  </si>
+  <si>
+    <t>델문도 제주 카페 Cafe Delmoondo</t>
+  </si>
+  <si>
+    <t>김녕 성세기 해변</t>
+  </si>
+  <si>
+    <t>제주도 더마파크</t>
+  </si>
+  <si>
+    <t>Halim jeju korea Selatan</t>
+  </si>
+  <si>
+    <t>제주도 귤밭</t>
+  </si>
+  <si>
+    <t>제주마라도잠수함</t>
+  </si>
+  <si>
+    <t>어부의딸</t>
+  </si>
+  <si>
+    <t>스시애월</t>
+  </si>
+  <si>
+    <t>꽃돼지연탄구이</t>
+  </si>
+  <si>
+    <t>세인트포cc</t>
+  </si>
+  <si>
+    <t>여수 앞바다</t>
+  </si>
+  <si>
+    <t>무거버거</t>
+  </si>
+  <si>
+    <t>유리네 식당</t>
+  </si>
+  <si>
+    <t>화산양꼬치2호점</t>
+  </si>
+  <si>
+    <t>Myeongjin Abalone</t>
+  </si>
+  <si>
+    <t>달달콤콤</t>
+  </si>
+  <si>
+    <t>Jaju,south Korea</t>
+  </si>
+  <si>
+    <t>규태네 양곱창</t>
+  </si>
+  <si>
+    <t>KBS본관</t>
+  </si>
+  <si>
+    <t>쇠소깍오메기식당</t>
+  </si>
+  <si>
+    <t>배블리컨테이너</t>
+  </si>
+  <si>
+    <t>마가리따 은혜씨cafe&amp;Dining pub</t>
+  </si>
+  <si>
+    <t>Cafe Ri</t>
+  </si>
+  <si>
+    <t>神의 한모(신의 한모)</t>
+  </si>
+  <si>
+    <t>카페오길</t>
+  </si>
+  <si>
+    <t>풍원 한라산볶음밥</t>
+  </si>
+  <si>
+    <t>홍대부부</t>
+  </si>
+  <si>
+    <t>모던플레이스 리조트</t>
+  </si>
+  <si>
+    <t>성읍칠십리식당</t>
   </si>
   <si>
     <t>자구내포구</t>
   </si>
   <si>
-    <t>대굴대굴굴구이</t>
+    <t>남포커피</t>
+  </si>
+  <si>
+    <t>크랩잭제주</t>
+  </si>
+  <si>
+    <t>마로니에 공원</t>
+  </si>
+  <si>
+    <t>Thecoffeebrew-더커피브루</t>
+  </si>
+  <si>
+    <t>제주 신재생에너지 홍보관</t>
+  </si>
+  <si>
+    <t>한림 바당길</t>
+  </si>
+  <si>
+    <t>오마주마카롱</t>
+  </si>
+  <si>
+    <t>연동포차</t>
+  </si>
+  <si>
+    <t>양대곱</t>
+  </si>
+  <si>
+    <t>깐깐한족발</t>
+  </si>
+  <si>
+    <t>오는정 김밥</t>
+  </si>
+  <si>
+    <t>뽕끄랑</t>
+  </si>
+  <si>
+    <t>홍대 깐풍기브라더스</t>
+  </si>
+  <si>
+    <t>CAMPHORTREE Hotel &amp; Resort</t>
+  </si>
+  <si>
+    <t>날씬흑돼지</t>
+  </si>
+  <si>
+    <t>삼보식당</t>
+  </si>
+  <si>
+    <t>주점부리</t>
+  </si>
+  <si>
+    <t>수월봉</t>
+  </si>
+  <si>
+    <t>흑돼지가있는풍경</t>
+  </si>
+  <si>
+    <t>물꼬기</t>
+  </si>
+  <si>
+    <t>블랙하우스 떡볶이레스토랑</t>
+  </si>
+  <si>
+    <t>대우정식당</t>
+  </si>
+  <si>
+    <t>청루 봉평 메밀 막국수</t>
+  </si>
+  <si>
+    <t>큰돈가</t>
+  </si>
+  <si>
+    <t>모니카옛날통닭</t>
+  </si>
+  <si>
+    <t>메이즈랜드</t>
+  </si>
+  <si>
+    <t>소렉</t>
+  </si>
+  <si>
+    <t>토도</t>
+  </si>
+  <si>
+    <t>인사리</t>
+  </si>
+  <si>
+    <t>제주시 고요남</t>
+  </si>
+  <si>
+    <t>해녀엄마의집</t>
+  </si>
+  <si>
+    <t>서촌제</t>
+  </si>
+  <si>
+    <t>제주 오션스토리</t>
+  </si>
+  <si>
+    <t>은실이네 게스트하우스</t>
+  </si>
+  <si>
+    <t>면뽑는선생 만두빚는아내</t>
+  </si>
+  <si>
+    <t>바다이야기</t>
+  </si>
+  <si>
+    <t>칠돈가 본점</t>
+  </si>
+  <si>
+    <t>에이그라운드</t>
+  </si>
+  <si>
+    <t>Jerry's PUB</t>
+  </si>
+  <si>
+    <t>제주칼국수 제주해물탕</t>
+  </si>
+  <si>
+    <t>블루밍아일랜드 Blooming Island</t>
+  </si>
+  <si>
+    <t>촵촵 - Chwap Chwap</t>
+  </si>
+  <si>
+    <t>행원포구</t>
+  </si>
+  <si>
+    <t>신흥동 일본식가옥</t>
+  </si>
+  <si>
+    <t>8월의크리스마스 초원사진관</t>
+  </si>
+  <si>
+    <t>이스트엔드</t>
+  </si>
+  <si>
+    <t>제주신화월드 메리어트 리조트관</t>
+  </si>
+  <si>
+    <t>키작은삼촌</t>
+  </si>
+  <si>
+    <t>엉장매하우스</t>
+  </si>
+  <si>
+    <t>고관해물탕, 초량</t>
+  </si>
+  <si>
+    <t>브라운스위트 제주</t>
+  </si>
+  <si>
+    <t>제주 대명리조트</t>
+  </si>
+  <si>
+    <t>제주도맛집</t>
+  </si>
+  <si>
+    <t>동탄2에 산다</t>
+  </si>
+  <si>
+    <t>청초수물회&amp;섭국 [신관]</t>
+  </si>
+  <si>
+    <t>속초 엄지네포장마차</t>
+  </si>
+  <si>
+    <t>오라게게스트하우스</t>
+  </si>
+  <si>
+    <t>미영이네식당</t>
+  </si>
+  <si>
+    <t>내츄럴케이</t>
+  </si>
+  <si>
+    <t>제주스럽닭</t>
+  </si>
+  <si>
+    <t>바삭돈가스</t>
+  </si>
+  <si>
+    <t>새우조나단</t>
   </si>
   <si>
     <t>대춘해장국</t>
   </si>
   <si>
-    <t>성산포</t>
+    <t>금능샌드</t>
+  </si>
+  <si>
+    <t>Novotel Ambassador Daegu</t>
+  </si>
+  <si>
+    <t>참맛나김밥</t>
+  </si>
+  <si>
+    <t>리치망고 협재점</t>
+  </si>
+  <si>
+    <t>가배</t>
+  </si>
+  <si>
+    <t>떡하니</t>
+  </si>
+  <si>
+    <t>Shineville Luxury Resort</t>
+  </si>
+  <si>
+    <t>듀블라썸</t>
+  </si>
+  <si>
+    <t>카페오드리</t>
+  </si>
+  <si>
+    <t>낙지로</t>
+  </si>
+  <si>
+    <t>키아스마</t>
+  </si>
+  <si>
+    <t>일도전복</t>
+  </si>
+  <si>
+    <t>대돈</t>
+  </si>
+  <si>
+    <t>광원</t>
+  </si>
+  <si>
+    <t>곰막 횟집</t>
+  </si>
+  <si>
+    <t>부자식당</t>
+  </si>
+  <si>
+    <t>핸드테일러 제주점</t>
+  </si>
+  <si>
+    <t>곱을락</t>
+  </si>
+  <si>
+    <t>곽지스테이션</t>
+  </si>
+  <si>
+    <t>쉬림포크shrimpork</t>
+  </si>
+  <si>
+    <t>교래 손 칼국수</t>
+  </si>
+  <si>
+    <t>사이카레</t>
+  </si>
+  <si>
+    <t>현대백화점 울산점</t>
+  </si>
+  <si>
+    <t>테디밸리골프리조트</t>
+  </si>
+  <si>
+    <t>제주중문관광단지</t>
+  </si>
+  <si>
+    <t>김포 구래동</t>
+  </si>
+  <si>
+    <t>성산스쿠버리조트</t>
+  </si>
+  <si>
+    <t>카페록록 Loklok</t>
+  </si>
+  <si>
+    <t>흑송</t>
+  </si>
+  <si>
+    <t>제주시 새우리</t>
+  </si>
+  <si>
+    <t>거멍국수</t>
+  </si>
+  <si>
+    <t>갈치왕</t>
+  </si>
+  <si>
+    <t>청춘게스트하우스</t>
+  </si>
+  <si>
+    <t>OLD STUFF 올드스터프 Coffee&amp;bread</t>
+  </si>
+  <si>
+    <t>김녕해수욕장 (Gimnyeong Beach)</t>
+  </si>
+  <si>
+    <t>도깨비명당</t>
+  </si>
+  <si>
+    <t>서촌제 (서울촌놈인제주)</t>
+  </si>
+  <si>
+    <t>맛있는 제주</t>
+  </si>
+  <si>
+    <t>자매국수 본점</t>
+  </si>
+  <si>
+    <t>That's very</t>
+  </si>
+  <si>
+    <t>세영수산</t>
+  </si>
+  <si>
+    <t>전주도</t>
+  </si>
+  <si>
+    <t>팔도수산식당</t>
+  </si>
+  <si>
+    <t>사방팔방 외도점</t>
+  </si>
+  <si>
+    <t>남원 포구</t>
+  </si>
+  <si>
+    <t>나원횟집</t>
+  </si>
+  <si>
+    <t>미풍해장국  중앙점</t>
+  </si>
+  <si>
+    <t>대기정</t>
+  </si>
+  <si>
+    <t>유채꽃사진촬영소</t>
+  </si>
+  <si>
+    <t>정관신도시</t>
+  </si>
+  <si>
+    <t>몽구네민박</t>
+  </si>
+  <si>
+    <t>Gagamel</t>
+  </si>
+  <si>
+    <t>경성대 맛집</t>
+  </si>
+  <si>
+    <t>자연스러운식당</t>
+  </si>
+  <si>
+    <t>바다사랑그리고추억</t>
+  </si>
+  <si>
+    <t>제주송정농원</t>
+  </si>
+  <si>
+    <t>제주 이자와</t>
   </si>
   <si>
     <t>우리집아점</t>
   </si>
   <si>
-    <t>The Retrieve</t>
-  </si>
-  <si>
-    <t>켄싱턴리조트 서귀포</t>
-  </si>
-  <si>
-    <t>여름문구사</t>
-  </si>
-  <si>
-    <t>랍스터빈_jeju</t>
-  </si>
-  <si>
-    <t>호텔위드제주</t>
-  </si>
-  <si>
-    <t>M-STAY / 엠스테이</t>
-  </si>
-  <si>
-    <t>제주대학교 교양강의동</t>
-  </si>
-  <si>
-    <t>동문시장</t>
-  </si>
-  <si>
-    <t>LOTTE City Hotel Jeju 롯데시티호텔제주</t>
-  </si>
-  <si>
-    <t>명진전복</t>
-  </si>
-  <si>
-    <t>노형 수목원가는길</t>
-  </si>
-  <si>
-    <t>훈남횟집</t>
-  </si>
-  <si>
-    <t>Seosan</t>
-  </si>
-  <si>
-    <t>엉또폭포</t>
-  </si>
-  <si>
-    <t>한동리 화수목</t>
-  </si>
-  <si>
-    <t>에코랜드테마파크</t>
-  </si>
-  <si>
-    <t>조천읍 북촌리</t>
-  </si>
-  <si>
-    <t>달사막</t>
-  </si>
-  <si>
-    <t>스테이굿무드</t>
-  </si>
-  <si>
-    <t>제주프레임스파빌</t>
-  </si>
-  <si>
-    <t>와흘리</t>
-  </si>
-  <si>
-    <t>미풍해장국  중앙점</t>
-  </si>
-  <si>
-    <t>정방 폭포</t>
-  </si>
-  <si>
-    <t>서귀포의료원</t>
-  </si>
-  <si>
-    <t>해비치호텔&amp;리조트 - Haevichi hotel &amp; resort</t>
-  </si>
-  <si>
-    <t>델문도 제주 카페 Cafe Delmoondo</t>
-  </si>
-  <si>
-    <t>수월봉</t>
-  </si>
-  <si>
-    <t>제주시청</t>
-  </si>
-  <si>
-    <t>산방산 (Sanbangsan)</t>
-  </si>
-  <si>
-    <t>연북정</t>
+    <t>플레이스엉물</t>
+  </si>
+  <si>
+    <t>치저스 제주</t>
+  </si>
+  <si>
+    <t>동복해녀촌</t>
+  </si>
+  <si>
+    <t>웃뜨르 우리돼지</t>
+  </si>
+  <si>
+    <t>한림 뽈살집</t>
+  </si>
+  <si>
+    <t>덕승식당</t>
+  </si>
+  <si>
+    <t>말미오름 (두산봉)</t>
+  </si>
+  <si>
+    <t>효섬마을 초가집</t>
+  </si>
+  <si>
+    <t>기쁨이네 감자탕</t>
+  </si>
+  <si>
+    <t>부촌식당</t>
+  </si>
+  <si>
+    <t>릴리펏 제주점 메종글래드호텔</t>
+  </si>
+  <si>
+    <t>담아래</t>
+  </si>
+  <si>
+    <t>제주돈아</t>
+  </si>
+  <si>
+    <t>제주한라수목원♥</t>
+  </si>
+  <si>
+    <t>민경이네 어등포해녀촌</t>
+  </si>
+  <si>
+    <t>Nolman</t>
+  </si>
+  <si>
+    <t>사는맛 먹는맛</t>
+  </si>
+  <si>
+    <t>성산옥탑</t>
+  </si>
+  <si>
+    <t>몽땅카페</t>
+  </si>
+  <si>
+    <t>한라산버섯연구소</t>
+  </si>
+  <si>
+    <t>검은여식당</t>
+  </si>
+  <si>
+    <t>카페 하도섬</t>
+  </si>
+  <si>
+    <t>김녕함바그집</t>
+  </si>
+  <si>
+    <t>국수바다</t>
+  </si>
+  <si>
+    <t>괜찮은술책</t>
+  </si>
+  <si>
+    <t>라올레( La Olle)</t>
+  </si>
+  <si>
+    <t>제주도 올레길 6코스 이중섭거리</t>
+  </si>
+  <si>
+    <t>이어도전복해물전문점</t>
   </si>
   <si>
     <t>알동네국수</t>
   </si>
   <si>
-    <t>흑돼지가있는풍경</t>
-  </si>
-  <si>
-    <t>폴레폴레게스트하우스 -Polepole Guesthouse in Jeju</t>
-  </si>
-  <si>
-    <t>서촌제</t>
-  </si>
-  <si>
-    <t>올레 6코스 (Olle Route 6)</t>
-  </si>
-  <si>
-    <t>외돌개</t>
-  </si>
-  <si>
-    <t>더본호텔</t>
-  </si>
-  <si>
-    <t>고불락 식당</t>
-  </si>
-  <si>
-    <t>제주도 귤밭</t>
-  </si>
-  <si>
-    <t>서촌제 (서울촌놈인제주)</t>
-  </si>
-  <si>
-    <t>Nolman</t>
-  </si>
-  <si>
-    <t>미미본가</t>
-  </si>
-  <si>
-    <t>동박낭</t>
-  </si>
-  <si>
-    <t>정관신도시</t>
-  </si>
-  <si>
-    <t>종달스토리 게스트하우스</t>
-  </si>
-  <si>
-    <t>제주 팜스빌리지</t>
-  </si>
-  <si>
-    <t>곰막 횟집</t>
-  </si>
-  <si>
-    <t>외도동</t>
+    <t>Villadeato-빌라드아토</t>
+  </si>
+  <si>
+    <t>목포고을. 제주도 흑돼지 끝나는 맛!</t>
+  </si>
+  <si>
+    <t>강정포구</t>
+  </si>
+  <si>
+    <t>서귀포흑돼지명가</t>
+  </si>
+  <si>
+    <t>하이클래스 제주 (Hiclass Jeju)</t>
+  </si>
+  <si>
+    <t>모닝딜라이트제주광양점</t>
+  </si>
+  <si>
+    <t>하림각</t>
+  </si>
+  <si>
+    <t>맥도날드장안사거리점</t>
+  </si>
+  <si>
+    <t>탕196</t>
+  </si>
+  <si>
+    <t>제주마당</t>
+  </si>
+  <si>
+    <t>형제섬</t>
   </si>
   <si>
     <t>동복해녀식당</t>
   </si>
   <si>
-    <t>동한두기</t>
-  </si>
-  <si>
-    <t>호연스테이</t>
-  </si>
-  <si>
-    <t>도라지식당</t>
-  </si>
-  <si>
-    <t>김녕장</t>
-  </si>
-  <si>
-    <t>유리네 식당</t>
-  </si>
-  <si>
-    <t>하례리 망장포구</t>
-  </si>
-  <si>
-    <t>큰엉전망대쉼터</t>
-  </si>
-  <si>
-    <t>덕수하루펜션</t>
-  </si>
-  <si>
-    <t>청루 봉평 메밀 막국수</t>
-  </si>
-  <si>
-    <t>하늘고래</t>
-  </si>
-  <si>
-    <t>Maison GLAD Jeju - 메종글래드 제주</t>
-  </si>
-  <si>
-    <t>주점부리</t>
-  </si>
-  <si>
-    <t>서귀포향토오일장</t>
-  </si>
-  <si>
-    <t>카페하도섬/엠스테이펜션</t>
-  </si>
-  <si>
-    <t>Soror</t>
-  </si>
-  <si>
-    <t>신풍목장</t>
-  </si>
-  <si>
-    <t>한림 바당길</t>
-  </si>
-  <si>
-    <t>알뜨르프로젝트2018</t>
-  </si>
-  <si>
-    <t>Málaga, Spain</t>
-  </si>
-  <si>
-    <t>리치망고 협재점</t>
-  </si>
-  <si>
-    <t>어부의딸</t>
-  </si>
-  <si>
-    <t>바라크라</t>
-  </si>
-  <si>
-    <t>촵촵 - Chwap Chwap</t>
-  </si>
-  <si>
-    <t>playce</t>
-  </si>
-  <si>
-    <t>곱을락</t>
-  </si>
-  <si>
-    <t>우도 비양도</t>
-  </si>
-  <si>
-    <t>비긴어게인펜션</t>
-  </si>
-  <si>
-    <t>Cafe delmundo</t>
-  </si>
-  <si>
-    <t>시민갈비</t>
-  </si>
-  <si>
-    <t>ECOLAND theme park</t>
-  </si>
-  <si>
-    <t>Saeyeon Bridge, Jeju Island</t>
-  </si>
-  <si>
-    <t>쭈니창고</t>
-  </si>
-  <si>
-    <t>니모메빈티지라운지</t>
-  </si>
-  <si>
-    <t>고로케야</t>
-  </si>
-  <si>
-    <t>Shineville Luxury Resort</t>
-  </si>
-  <si>
-    <t>73st</t>
-  </si>
-  <si>
-    <t>못생김</t>
-  </si>
-  <si>
-    <t>머스태쉬커피/머스태쉬하우스</t>
-  </si>
-  <si>
-    <t>Segovia, Spain</t>
-  </si>
-  <si>
-    <t>모메든식당</t>
-  </si>
-  <si>
-    <t>제주칼국수 제주해물탕</t>
-  </si>
-  <si>
-    <t>제주 생각하는 정원</t>
-  </si>
-  <si>
-    <t>카페 하도섬</t>
-  </si>
-  <si>
-    <t>공업탑</t>
-  </si>
-  <si>
-    <t>금능샌드</t>
-  </si>
-  <si>
-    <t>산방산</t>
-  </si>
-  <si>
-    <t>배블리컨테이너</t>
-  </si>
-  <si>
-    <t>제주워터월드/감귤노천탕</t>
-  </si>
-  <si>
-    <t>이중섭 미술관</t>
-  </si>
-  <si>
-    <t>GD Cafe</t>
-  </si>
-  <si>
-    <t>탑동해변공연장</t>
-  </si>
-  <si>
     <t>종로 광장시장</t>
   </si>
   <si>
-    <t>중문국수나라</t>
-  </si>
-  <si>
-    <t>게으른날</t>
-  </si>
-  <si>
-    <t>수제홍과일모찌하귀점</t>
-  </si>
-  <si>
-    <t>카페소금</t>
-  </si>
-  <si>
-    <t>한림 뽈살집</t>
-  </si>
-  <si>
-    <t>나인브릿지</t>
-  </si>
-  <si>
-    <t>기쁨이네 감자탕</t>
-  </si>
-  <si>
-    <t>제주인의밥상</t>
-  </si>
-  <si>
-    <t>문섬</t>
-  </si>
-  <si>
-    <t>사락</t>
-  </si>
-  <si>
-    <t>모던플레이스 리조트</t>
-  </si>
-  <si>
-    <t>신창해안도로</t>
-  </si>
-  <si>
-    <t>제주 이자와</t>
-  </si>
-  <si>
-    <t>평화통일불사리탑사</t>
-  </si>
-  <si>
-    <t>Dammann Frères_다만프레르_제주신화점</t>
-  </si>
-  <si>
-    <t>엉장매하우스</t>
-  </si>
-  <si>
-    <t>모이세해장국</t>
-  </si>
-  <si>
-    <t>금능반지하</t>
-  </si>
-  <si>
-    <t>카페 호꼼</t>
-  </si>
-  <si>
-    <t>OLD STUFF 올드스터프 Coffee&amp;bread</t>
-  </si>
-  <si>
-    <t>휘슬락호텔</t>
-  </si>
-  <si>
-    <t>전라북도 군산 경암동 철길마을</t>
-  </si>
-  <si>
-    <t>갈치왕</t>
-  </si>
-  <si>
-    <t>Mansion37.5</t>
-  </si>
-  <si>
-    <t>개똥이네 동물원</t>
-  </si>
-  <si>
-    <t>소우</t>
-  </si>
-  <si>
-    <t>제주마라도잠수함</t>
-  </si>
-  <si>
-    <t>카페바띠</t>
-  </si>
-  <si>
-    <t>브라운스위트 제주</t>
-  </si>
-  <si>
-    <t>빌리엔젤 제주노형점</t>
-  </si>
-  <si>
-    <t>제주 대명리조트</t>
-  </si>
-  <si>
-    <t>미영이네식당</t>
-  </si>
-  <si>
-    <t>남원 포구</t>
-  </si>
-  <si>
-    <t>서귀포흑돼지명가</t>
-  </si>
-  <si>
-    <t>마구로쇼쿠도</t>
-  </si>
-  <si>
-    <t>동문로터리</t>
-  </si>
-  <si>
-    <t>담아래</t>
-  </si>
-  <si>
-    <t>베케</t>
-  </si>
-  <si>
-    <t>속초 아바이마을</t>
-  </si>
-  <si>
-    <t>우리두리게스트하우스</t>
-  </si>
-  <si>
-    <t>Shimo-kitazawa Station</t>
-  </si>
-  <si>
-    <t>제주도 부영리조트</t>
-  </si>
-  <si>
-    <t>남포커피</t>
-  </si>
-  <si>
-    <t>대구국제공항</t>
-  </si>
-  <si>
-    <t>마로니에 공원</t>
-  </si>
-  <si>
-    <t>김녕해수욕장 (Gimnyeong Beach)</t>
-  </si>
-  <si>
-    <t>제주베니스랜드</t>
-  </si>
-  <si>
-    <t>서건도</t>
-  </si>
-  <si>
-    <t>협재칼국수</t>
-  </si>
-  <si>
-    <t>한화아쿠아넷</t>
-  </si>
-  <si>
-    <t>제주시</t>
-  </si>
-  <si>
-    <t>제주도 휘닉스아일랜드</t>
-  </si>
-  <si>
-    <t>우도 (Udo / 牛島)</t>
-  </si>
-  <si>
-    <t>Coco Mama</t>
-  </si>
-  <si>
-    <t>서귀동 298-5 '세계의 가정식'</t>
-  </si>
-  <si>
-    <t>렛츠런팜제주</t>
-  </si>
-  <si>
-    <t>돌마을공원</t>
-  </si>
-  <si>
-    <t>잔향</t>
-  </si>
-  <si>
-    <t>항파두리 항몽유적지</t>
-  </si>
-  <si>
-    <t>카페모리&amp;베이커스트리트</t>
-  </si>
-  <si>
-    <t>돈사돈중문점</t>
-  </si>
-  <si>
-    <t>까망고띠</t>
-  </si>
-  <si>
-    <t>Oslob, Cebu</t>
-  </si>
-  <si>
-    <t>마모루</t>
-  </si>
-  <si>
-    <t>옥계휴게소</t>
-  </si>
-  <si>
-    <t>인공위성 제주</t>
-  </si>
-  <si>
-    <t>칠돈가 본점</t>
-  </si>
-  <si>
-    <t>부산 맛집 여기</t>
-  </si>
-  <si>
-    <t>애월해안도로</t>
-  </si>
-  <si>
-    <t>神의 한모(신의 한모)</t>
-  </si>
-  <si>
-    <t>Shilla Stay</t>
-  </si>
-  <si>
-    <t>시루애월 소길점</t>
-  </si>
-  <si>
-    <t>미도리</t>
-  </si>
-  <si>
-    <t>정동진</t>
-  </si>
-  <si>
-    <t>표선 해비치해수욕장</t>
-  </si>
-  <si>
-    <t>독개물항</t>
-  </si>
-  <si>
-    <t>화북1동</t>
-  </si>
-  <si>
-    <t>바보까페</t>
-  </si>
-  <si>
-    <t>쿠쿠아림</t>
-  </si>
-  <si>
-    <t>수망일기</t>
-  </si>
-  <si>
-    <t>치저스 제주</t>
-  </si>
-  <si>
-    <t>제주하귀휴먼시아</t>
-  </si>
-  <si>
-    <t>제주집</t>
-  </si>
-  <si>
-    <t>털보네고양이</t>
-  </si>
-  <si>
-    <t>제주웰컴센터</t>
-  </si>
-  <si>
-    <t>제주아트리움"비밀의그림자"공연</t>
-  </si>
-  <si>
-    <t>가시아방국수</t>
-  </si>
-  <si>
-    <t>제주오리엔탈호텔</t>
-  </si>
-  <si>
-    <t>현대백화점 울산점</t>
-  </si>
-  <si>
-    <t>제주스럽닭</t>
-  </si>
-  <si>
-    <t>메이즈랜드</t>
-  </si>
-  <si>
-    <t>구엄리 돌염전</t>
-  </si>
-  <si>
-    <t>제주중앙로상점가</t>
-  </si>
-  <si>
-    <t>제주항공</t>
-  </si>
-  <si>
-    <t>바삭돈가스</t>
-  </si>
-  <si>
-    <t>지붕위제주바다</t>
-  </si>
-  <si>
-    <t>구좌상회작업실</t>
-  </si>
-  <si>
-    <t>필립헤어</t>
-  </si>
-  <si>
-    <t>Marevo Resort / 마레보 리조트</t>
-  </si>
-  <si>
-    <t>Sangumburi Crater</t>
-  </si>
-  <si>
-    <t>702키친</t>
-  </si>
-  <si>
-    <t>삼공주회센터</t>
-  </si>
-  <si>
-    <t>종가전복</t>
-  </si>
-  <si>
-    <t>서머셋 제주신화월드</t>
-  </si>
-  <si>
-    <t>국수의 전설</t>
-  </si>
-  <si>
-    <t>홍대개미제주</t>
-  </si>
-  <si>
-    <t>꽃이다카페</t>
-  </si>
-  <si>
-    <t>중문 단지 삼원정</t>
-  </si>
-  <si>
-    <t>드렁큰디제이</t>
-  </si>
-  <si>
-    <t>물꼬기</t>
-  </si>
-  <si>
-    <t>도깨비명당</t>
-  </si>
-  <si>
-    <t>월정스캔들</t>
-  </si>
-  <si>
-    <t>비양도</t>
-  </si>
-  <si>
-    <t>홍대 깐풍기브라더스</t>
-  </si>
-  <si>
-    <t>형제섬</t>
-  </si>
-  <si>
-    <t>서귀포 칼호텔 (KAL Hotel Seogwipo)</t>
-  </si>
-  <si>
-    <t>충남 대천 해수욕장 에서</t>
-  </si>
-  <si>
-    <t>제주 이호테우 해변</t>
-  </si>
-  <si>
-    <t>소렉</t>
-  </si>
-  <si>
-    <t>피규어뮤지엄제주</t>
-  </si>
-  <si>
-    <t>규태네 양곱창</t>
-  </si>
-  <si>
-    <t>Myeongjin Abalone</t>
-  </si>
-  <si>
-    <t>제주 신재생에너지 홍보관</t>
-  </si>
-  <si>
-    <t>연동포차</t>
-  </si>
-  <si>
-    <t>카페2472</t>
-  </si>
-  <si>
-    <t>헤이브라더</t>
-  </si>
-  <si>
-    <t>종달리 해변</t>
-  </si>
-  <si>
-    <t>피규어 뮤지엄 제주  Figure Museum Jeju</t>
-  </si>
-  <si>
-    <t>서양차관</t>
-  </si>
-  <si>
-    <t>블랙하우스 떡볶이레스토랑</t>
-  </si>
-  <si>
-    <t>호끌락80번지</t>
-  </si>
-  <si>
-    <t>에코랜드 라벤다앤그린티로즈가든역</t>
-  </si>
-  <si>
-    <t>국수바다</t>
-  </si>
-  <si>
-    <t>Uncommon Table</t>
-  </si>
-  <si>
-    <t>제주여행 가야밀면</t>
-  </si>
-  <si>
-    <t>Thecoffeebrew-더커피브루</t>
-  </si>
-  <si>
-    <t>나주혁신도시</t>
-  </si>
-  <si>
-    <t>바다이야기</t>
-  </si>
-  <si>
-    <t>제주 사랑분식</t>
-  </si>
-  <si>
-    <t>사우스바운더 Southbounder Brewery</t>
-  </si>
-  <si>
-    <t>접대 - 저번에 우리가 만났던 그때</t>
-  </si>
-  <si>
-    <t>성산스쿠버리조트</t>
-  </si>
-  <si>
-    <t>화산양꼬치2호점</t>
-  </si>
-  <si>
-    <t>산방굴사 (Sanbanggulsa Temple 山房窟寺)</t>
-  </si>
-  <si>
-    <t>Hwasun</t>
-  </si>
-  <si>
-    <t>스트라이크볼링센터</t>
-  </si>
-  <si>
-    <t>협재술시</t>
-  </si>
-  <si>
-    <t>제주도 표선</t>
-  </si>
-  <si>
-    <t>Salon De 소자38</t>
-  </si>
-  <si>
-    <t>한라산버섯연구소</t>
-  </si>
-  <si>
-    <t>Arc de Triomphe</t>
-  </si>
-  <si>
-    <t>닭머르</t>
-  </si>
-  <si>
-    <t>여수 앞바다</t>
-  </si>
-  <si>
-    <t>Bongcheon-dong</t>
-  </si>
-  <si>
-    <t>모던하우스 제주점</t>
-  </si>
-  <si>
-    <t>Jeju Island, South Korea - 제주도</t>
-  </si>
-  <si>
-    <t>경성대 맛집</t>
-  </si>
-  <si>
-    <t>세인트포cc</t>
-  </si>
-  <si>
-    <t>포팩토리</t>
-  </si>
-  <si>
-    <t>꽃밥</t>
-  </si>
-  <si>
-    <t>고관해물탕, 초량</t>
-  </si>
-  <si>
-    <t>관음사</t>
-  </si>
-  <si>
-    <t>대기정</t>
-  </si>
-  <si>
-    <t>제주 운정이네</t>
-  </si>
-  <si>
-    <t>이어도전복해물전문점</t>
-  </si>
-  <si>
-    <t>하림각</t>
-  </si>
-  <si>
-    <t>돈물국수</t>
-  </si>
-  <si>
-    <t>하도해변</t>
-  </si>
-  <si>
-    <t>제주돌문화공원</t>
-  </si>
-  <si>
-    <t>제주시 고요남</t>
-  </si>
-  <si>
-    <t>플레이스엉물</t>
-  </si>
-  <si>
-    <t>바당지기식당</t>
-  </si>
-  <si>
-    <t>부자식당</t>
-  </si>
-  <si>
-    <t>곽지스테이션</t>
-  </si>
-  <si>
-    <t>참맛나김밥</t>
-  </si>
-  <si>
-    <t>방주교회</t>
-  </si>
-  <si>
-    <t>성산옥탑</t>
-  </si>
-  <si>
-    <t>가드망제</t>
-  </si>
-  <si>
-    <t>제주마당</t>
-  </si>
-  <si>
-    <t>자연스러운식당</t>
-  </si>
-  <si>
-    <t>대우정식당</t>
-  </si>
-  <si>
-    <t>탑동광장편의점</t>
-  </si>
-  <si>
-    <t>1342틈</t>
-  </si>
-  <si>
-    <t>검은여식당</t>
-  </si>
-  <si>
-    <t>정방폭포가 보이는 암벽위</t>
-  </si>
-  <si>
-    <t>내츄럴케이</t>
-  </si>
-  <si>
-    <t>타쿠마 - Takuma</t>
-  </si>
-  <si>
-    <t>용담해안도로</t>
-  </si>
-  <si>
-    <t>요요무문</t>
-  </si>
-  <si>
-    <t>청사포 수민이네</t>
-  </si>
-  <si>
-    <t>책다방</t>
-  </si>
-  <si>
-    <t>수제홍과일모찌</t>
-  </si>
-  <si>
-    <t>Seoul, Korea</t>
-  </si>
-  <si>
-    <t>상효원 수목원</t>
-  </si>
-  <si>
-    <t>섶섬해녀할망카페</t>
-  </si>
-  <si>
-    <t>Cafe카페인</t>
-  </si>
-  <si>
-    <t>제주도가는 비행기 안</t>
-  </si>
-  <si>
-    <t>깡촌흑돼지</t>
-  </si>
-  <si>
-    <t>사이카레</t>
-  </si>
-  <si>
-    <t>봉개동</t>
-  </si>
-  <si>
-    <t>Tj Guesthouse</t>
-  </si>
-  <si>
-    <t>제주돈아</t>
-  </si>
-  <si>
-    <t>Cafe Ri</t>
-  </si>
-  <si>
-    <t>어반가라지</t>
-  </si>
-  <si>
-    <t>돼지촌</t>
-  </si>
-  <si>
-    <t>섭지코지 등대</t>
-  </si>
-  <si>
-    <t>Bronx, New York</t>
-  </si>
-  <si>
-    <t>반딧불 한담</t>
-  </si>
-  <si>
-    <t>Novotel Ambassador Daegu</t>
-  </si>
-  <si>
-    <t>연화키친</t>
-  </si>
-  <si>
-    <t>섭지코지 (Seopjikoji)</t>
-  </si>
-  <si>
-    <t>TheFirst70 Hotel</t>
-  </si>
-  <si>
-    <t>표선리</t>
-  </si>
-  <si>
-    <t>효돈마을</t>
-  </si>
-  <si>
-    <t>장복호</t>
-  </si>
-  <si>
-    <t>강정포구</t>
-  </si>
-  <si>
-    <t>제주맑음</t>
-  </si>
-  <si>
-    <t>오운커피</t>
-  </si>
-  <si>
-    <t>성수족발</t>
-  </si>
-  <si>
-    <t>큰돈가</t>
-  </si>
-  <si>
-    <t>성산수구레국밥</t>
-  </si>
-  <si>
-    <t>오렌지블루스</t>
-  </si>
-  <si>
-    <t>바다의집</t>
-  </si>
-  <si>
-    <t>제주도청</t>
-  </si>
-  <si>
-    <t>네이처캔바스</t>
-  </si>
-  <si>
-    <t>1158 Cafe</t>
-  </si>
-  <si>
-    <t>쉐프부부</t>
-  </si>
-  <si>
-    <t>용두암해변</t>
-  </si>
-  <si>
-    <t>Kairos jeju</t>
-  </si>
-  <si>
-    <t>올레안뜰</t>
-  </si>
-  <si>
-    <t>제주송정농원</t>
-  </si>
-  <si>
-    <t>라올레( La Olle)</t>
-  </si>
-  <si>
-    <t>웃뜨르</t>
-  </si>
-  <si>
-    <t>산천단</t>
-  </si>
-  <si>
-    <t>키작은삼촌</t>
-  </si>
-  <si>
-    <t>뽕끄랑</t>
-  </si>
-  <si>
-    <t>젠하이드어웨이</t>
-  </si>
-  <si>
-    <t>책방무사</t>
-  </si>
-  <si>
-    <t>Jerry's PUB</t>
-  </si>
-  <si>
-    <t>자갈자갈</t>
-  </si>
-  <si>
-    <t>헤밍웨이 하우스</t>
-  </si>
-  <si>
-    <t>비스트로낭</t>
-  </si>
-  <si>
-    <t>숨비아일랜드</t>
-  </si>
-  <si>
-    <t>쉬리의 언덕</t>
-  </si>
-  <si>
-    <t>바램목장&amp;카페</t>
-  </si>
-  <si>
-    <t>제주중문관광단지</t>
-  </si>
-  <si>
-    <t>Gagamel</t>
-  </si>
-  <si>
-    <t>바굥식당</t>
-  </si>
-  <si>
-    <t>삼다버거</t>
-  </si>
-  <si>
-    <t>마담제 게스트하우스</t>
-  </si>
-  <si>
-    <t>김녕 성세기 해변</t>
-  </si>
-  <si>
-    <t>제주조천스위스마을</t>
-  </si>
-  <si>
-    <t>Cafe가호</t>
-  </si>
-  <si>
-    <t>송당리 풍림다방</t>
-  </si>
-  <si>
-    <t>라비에 와인비스트로</t>
-  </si>
-  <si>
-    <t>Hallasan</t>
-  </si>
-  <si>
-    <t>Yacht Tour Shangri-La</t>
-  </si>
-  <si>
-    <t>양대곱</t>
-  </si>
-  <si>
-    <t>선화동106-1</t>
-  </si>
-  <si>
-    <t>꽃돼지연탄구이</t>
-  </si>
-  <si>
-    <t>안녕, 육지사람</t>
-  </si>
-  <si>
-    <t>투썸플레이스 제주애월한담점</t>
-  </si>
-  <si>
-    <t>김포 구래동</t>
-  </si>
-  <si>
-    <t>윈드스톤</t>
-  </si>
-  <si>
-    <t>월정곰닭</t>
-  </si>
-  <si>
-    <t>CAMPHORTREE Hotel &amp; Resort</t>
-  </si>
-  <si>
-    <t>중문 마린파크 퍼시픽랜드</t>
-  </si>
-  <si>
-    <t>That's very</t>
-  </si>
-  <si>
-    <t>카페닐스</t>
-  </si>
-  <si>
-    <t>공천포 식당</t>
-  </si>
-  <si>
-    <t>제주도 하도리</t>
-  </si>
-  <si>
-    <t>대돈</t>
-  </si>
-  <si>
-    <t>나도섬이다</t>
-  </si>
-  <si>
-    <t>고근산정상</t>
-  </si>
-  <si>
-    <t>이게밥도둑</t>
-  </si>
-  <si>
-    <t>Paz</t>
-  </si>
-  <si>
-    <t>관덕정</t>
-  </si>
-  <si>
-    <t>Ramada Plaza Jeju</t>
-  </si>
-  <si>
-    <t>카페라능</t>
-  </si>
-  <si>
-    <t>제주 월령선인장 군락지</t>
-  </si>
-  <si>
-    <t>깐깐한족발</t>
-  </si>
-  <si>
-    <t>비자림 (Bija Forest, 榧子林)</t>
-  </si>
-  <si>
-    <t>환상숲곶자왈공원</t>
-  </si>
-  <si>
-    <t>저지예술인마을</t>
-  </si>
-  <si>
     <t>디스이즈핫</t>
-  </si>
-  <si>
-    <t>김녕 앞바다</t>
-  </si>
-  <si>
-    <t>서귀포 워터월드</t>
-  </si>
-  <si>
-    <t>돈사촌</t>
-  </si>
-  <si>
-    <t>부촌식당</t>
-  </si>
-  <si>
-    <t>제주몬트락</t>
-  </si>
-  <si>
-    <t>풍미독서</t>
-  </si>
-  <si>
-    <t>La Tortuga</t>
-  </si>
-  <si>
-    <t>제주 나인브릿지 CC</t>
-  </si>
-  <si>
-    <t>어라운드 폴리 Around Follie</t>
-  </si>
-  <si>
-    <t>바다사랑그리고추억</t>
-  </si>
-  <si>
-    <t>탑동마차</t>
-  </si>
-  <si>
-    <t>함덕 다래향</t>
-  </si>
-  <si>
-    <t>Sensō-ji</t>
-  </si>
-  <si>
-    <t>귀덕1리</t>
-  </si>
-  <si>
-    <t>더아트스테이호텔-The Artstay Hotel</t>
-  </si>
-  <si>
-    <t>Halim jeju korea Selatan</t>
-  </si>
-  <si>
-    <t>날씬흑돼지</t>
-  </si>
-  <si>
-    <t>제주 천제연폭포</t>
-  </si>
-  <si>
-    <t>네이처트레일</t>
-  </si>
-  <si>
-    <t>Paju</t>
-  </si>
-  <si>
-    <t>더스파</t>
-  </si>
-  <si>
-    <t>고기마씸</t>
-  </si>
-  <si>
-    <t>북촌플레이스</t>
-  </si>
-  <si>
-    <t>함덕 Fishya</t>
-  </si>
-  <si>
-    <t>제주도맛집</t>
-  </si>
-  <si>
-    <t>키아스마</t>
-  </si>
-  <si>
-    <t>서귀포 기억나는집</t>
-  </si>
-  <si>
-    <t>카페오길</t>
-  </si>
-  <si>
-    <t>가배</t>
-  </si>
-  <si>
-    <t>색달식당</t>
-  </si>
-  <si>
-    <t>제주카페 스르륵</t>
-  </si>
-  <si>
-    <t>자연뜨락</t>
-  </si>
-  <si>
-    <t>리틀이태리 비스트로</t>
-  </si>
-  <si>
-    <t>맛있는 제주</t>
-  </si>
-  <si>
-    <t>동복해녀촌</t>
-  </si>
-  <si>
-    <t>Maxim 모카다방</t>
-  </si>
-  <si>
-    <t>하노이안브라더스</t>
-  </si>
-  <si>
-    <t>카페록록 Loklok</t>
-  </si>
-  <si>
-    <t>다이브스테이</t>
-  </si>
-  <si>
-    <t>제주초가집 곱들락</t>
-  </si>
-  <si>
-    <t>동탄2에 산다</t>
-  </si>
-  <si>
-    <t>제주도 고근산</t>
-  </si>
-  <si>
-    <t>아름다운제주여행</t>
-  </si>
-  <si>
-    <t>돈테일러익스프레</t>
-  </si>
-  <si>
-    <t>스타벅스 제주성산dt점</t>
-  </si>
-  <si>
-    <t>날것</t>
-  </si>
-  <si>
-    <t>홍대부부</t>
-  </si>
-  <si>
-    <t>오조해녀의집</t>
-  </si>
-  <si>
-    <t>스모크하우스인구억</t>
-  </si>
-  <si>
-    <t>Ulsan, Korea</t>
-  </si>
-  <si>
-    <t>Volskafé</t>
-  </si>
-  <si>
-    <t>비양도 해녀촌</t>
-  </si>
-  <si>
-    <t>쉼표</t>
-  </si>
-  <si>
-    <t>제주한라수목원♥</t>
-  </si>
-  <si>
-    <t>벵디</t>
-  </si>
-  <si>
-    <t>한성식당</t>
-  </si>
-  <si>
-    <t>우도 하고수동해수욕장</t>
-  </si>
-  <si>
-    <t>오드랑베이커리</t>
-  </si>
-  <si>
-    <t>우진해장국</t>
-  </si>
-  <si>
-    <t>올레길 5코스</t>
-  </si>
-  <si>
-    <t>협제 혜변</t>
-  </si>
-  <si>
-    <t>속초 엄지네포장마차</t>
-  </si>
-  <si>
-    <t>스테이 비갠오후</t>
-  </si>
-  <si>
-    <t>유리의성과마법의숲</t>
-  </si>
-  <si>
-    <t>이호테우 목마등대</t>
-  </si>
-  <si>
-    <t>제주한면가 濟州韓麵家</t>
-  </si>
-  <si>
-    <t>버드나무집</t>
-  </si>
-  <si>
-    <t>행원포구</t>
-  </si>
-  <si>
-    <t>돌담너머바다</t>
-  </si>
-  <si>
-    <t>호텔 아이엠</t>
-  </si>
-  <si>
-    <t>성읍칠십리식당</t>
-  </si>
-  <si>
-    <t>지붕 위 제주바다</t>
-  </si>
-  <si>
-    <t>제주시 화북동</t>
-  </si>
-  <si>
-    <t>사는맛 먹는맛</t>
-  </si>
-  <si>
-    <t>낙지로</t>
-  </si>
-  <si>
-    <t>팔도수산식당</t>
-  </si>
-  <si>
-    <t>괜찮은술책</t>
-  </si>
-  <si>
-    <t>덕승식당</t>
-  </si>
-  <si>
-    <t>Jeju Starbucks 용담dt</t>
-  </si>
-  <si>
-    <t>오설록</t>
-  </si>
-  <si>
-    <t>석부작테마공원</t>
-  </si>
-  <si>
-    <t>웃뜨르 우리돼지</t>
-  </si>
-  <si>
-    <t>목수금토일</t>
-  </si>
-  <si>
-    <t>나원횟집</t>
-  </si>
-  <si>
-    <t>제주시농협하나로마트</t>
-  </si>
-  <si>
-    <t>KBS본관</t>
-  </si>
-  <si>
-    <t>한림공원 Hallimpark</t>
-  </si>
-  <si>
-    <t>Cafe기억해</t>
-  </si>
-  <si>
-    <t>도두항</t>
-  </si>
-  <si>
-    <t>소금바치 순이네</t>
-  </si>
-  <si>
-    <t>몽구네민박</t>
-  </si>
-  <si>
-    <t>신천목장</t>
-  </si>
-  <si>
-    <t>듀블라썸</t>
-  </si>
-  <si>
-    <t>초콜릿랜드 / Chocolate Land</t>
-  </si>
-  <si>
-    <t>제주세계자연유산센터</t>
-  </si>
-  <si>
-    <t>모니카옛날통닭</t>
-  </si>
-  <si>
-    <t>시루애월카페</t>
-  </si>
-  <si>
-    <t>무거버거</t>
-  </si>
-  <si>
-    <t>Jaju,south Korea</t>
-  </si>
-  <si>
-    <t>보롬왓</t>
-  </si>
-  <si>
-    <t>중문관광단지 (Jungmun Tourism Complex)</t>
-  </si>
-  <si>
-    <t>Cafe멘도롱</t>
-  </si>
-  <si>
-    <t>황궁쟁반짜장</t>
-  </si>
-  <si>
-    <t>광안리 앙상블</t>
-  </si>
-  <si>
-    <t>마가리따 은혜씨cafe&amp;Dining pub</t>
-  </si>
-  <si>
-    <t>제주비치호텔 함덕</t>
-  </si>
-  <si>
-    <t>제주시 조천읍 와선로 206</t>
-  </si>
-  <si>
-    <t>Gimpo International Airport - 金浦国际机场 - 김포공항</t>
-  </si>
-  <si>
-    <t>과일애</t>
-  </si>
-  <si>
-    <t>핸드테일러 제주점</t>
-  </si>
-  <si>
-    <t>쪼끌락 cafe</t>
-  </si>
-  <si>
-    <t>Cafe Koomda</t>
-  </si>
-  <si>
-    <t>담앤루리조트</t>
-  </si>
-  <si>
-    <t>제주함덕 해수욕장</t>
-  </si>
-  <si>
-    <t>골목카페 옥수</t>
-  </si>
-  <si>
-    <t>인사리</t>
-  </si>
-  <si>
-    <t>금바리</t>
-  </si>
-  <si>
-    <t>Suweolbong Trekking</t>
-  </si>
-  <si>
-    <t>도토리키친</t>
-  </si>
-  <si>
-    <t>포근한우리집</t>
-  </si>
-  <si>
-    <t>Shmonga</t>
-  </si>
-  <si>
-    <t>청춘게스트하우스</t>
-  </si>
-  <si>
-    <t>오샹띠</t>
-  </si>
-  <si>
-    <t>제주아리아</t>
-  </si>
-  <si>
-    <t>Hibi &amp; Kohaku</t>
-  </si>
-  <si>
-    <t>광원</t>
-  </si>
-  <si>
-    <t>무수천계곡</t>
-  </si>
-  <si>
-    <t>제주좋은날</t>
-  </si>
-  <si>
-    <t>에코그린리조트</t>
-  </si>
-  <si>
-    <t>올레길</t>
-  </si>
-  <si>
-    <t>스타양곱창</t>
-  </si>
-  <si>
-    <t>한림 칠돈가</t>
-  </si>
-  <si>
-    <t>베이크샵스니프 bakeshop sniff</t>
-  </si>
-  <si>
-    <t>절물 자연 휴양림</t>
-  </si>
-  <si>
-    <t>Gimpo International Airport Station</t>
-  </si>
-  <si>
-    <t>제주마로 펜션</t>
-  </si>
-  <si>
-    <t>한라생태숲</t>
-  </si>
-  <si>
-    <t>카페오드리</t>
-  </si>
-  <si>
-    <t>바람코지 게스트하우스&amp;카페</t>
-  </si>
-  <si>
-    <t>노형로터리</t>
-  </si>
-  <si>
-    <t>순덕이네해산물장터</t>
-  </si>
-  <si>
-    <t>새별오름 정상</t>
-  </si>
-  <si>
-    <t>몽키비치</t>
-  </si>
-  <si>
-    <t>김녕함바그집</t>
-  </si>
-  <si>
-    <t>토도</t>
-  </si>
-  <si>
-    <t>일도전복</t>
-  </si>
-  <si>
-    <t>제주신화월드 메리어트 리조트관</t>
-  </si>
-  <si>
-    <t>제주도 용두암</t>
-  </si>
-  <si>
-    <t>협재 수우동</t>
-  </si>
-  <si>
-    <t>지금여기</t>
-  </si>
-  <si>
-    <t>헤이미쉬제주_제주독채펜션</t>
-  </si>
-  <si>
-    <t>제주인에이에이</t>
-  </si>
-  <si>
-    <t>사라오름 산정호수</t>
-  </si>
-  <si>
-    <t>강식당</t>
-  </si>
-  <si>
-    <t>제주도립미술관</t>
-  </si>
-  <si>
-    <t>오라게게스트하우스</t>
-  </si>
-  <si>
-    <t>말미오름 (두산봉)</t>
-  </si>
-  <si>
-    <t>성산일출봉 코앞 쉼터</t>
-  </si>
-  <si>
-    <t>테라로사-이사랑</t>
-  </si>
-  <si>
-    <t>비싸이드엠,beside-M</t>
-  </si>
-  <si>
-    <t>구좌상회</t>
-  </si>
-  <si>
-    <t>제주 오션스토리</t>
-  </si>
-  <si>
-    <t>달달콤콤</t>
-  </si>
-  <si>
-    <t>세영수산</t>
-  </si>
-  <si>
-    <t>마포식당</t>
-  </si>
-  <si>
-    <t>자구리 카페 몬들락 Cafe Mondeulrak</t>
-  </si>
-  <si>
-    <t>제주도 더마파크</t>
-  </si>
-  <si>
-    <t>은실이네 게스트하우스</t>
-  </si>
-  <si>
-    <t>Jungle book by Alice</t>
-  </si>
-  <si>
-    <t>자매국수 본점</t>
-  </si>
-  <si>
-    <t>백리향백반</t>
-  </si>
-  <si>
-    <t>Bonte museum</t>
-  </si>
-  <si>
-    <t>Ocean Suite Jeju Hotel (오션스위츠제주호텔)</t>
-  </si>
-  <si>
-    <t>협재</t>
-  </si>
-  <si>
-    <t>코코몽 에코랜드</t>
-  </si>
-  <si>
-    <t>한라산 정상 해발 1,950m</t>
-  </si>
-  <si>
-    <t>스물다섯</t>
-  </si>
-  <si>
-    <t>제주엠리조트</t>
-  </si>
-  <si>
-    <t>8월의크리스마스 초원사진관</t>
-  </si>
-  <si>
-    <t>해물뚝배기전문 재암식당</t>
-  </si>
-  <si>
-    <t>내콩가</t>
-  </si>
-  <si>
-    <t>MBC</t>
-  </si>
-  <si>
-    <t>서귀포 이마트</t>
-  </si>
-  <si>
-    <t>벵디1967</t>
-  </si>
-  <si>
-    <t>덕인당 소락</t>
-  </si>
-  <si>
-    <t>테디밸리골프리조트</t>
-  </si>
-  <si>
-    <t>썬앤문리조트</t>
-  </si>
-  <si>
-    <t>금악리 제주힐링리조트</t>
-  </si>
-  <si>
-    <t>목포고을. 제주도 흑돼지 끝나는 맛!</t>
-  </si>
-  <si>
-    <t>제주시 새우리</t>
-  </si>
-  <si>
-    <t>빌라드아토</t>
-  </si>
-  <si>
-    <t>제주시도두항</t>
-  </si>
-  <si>
-    <t>동광 pâtisserie '東光'</t>
-  </si>
-  <si>
-    <t>릴리펏 제주점 메종글래드호텔</t>
-  </si>
-  <si>
-    <t>신흥동 일본식가옥</t>
-  </si>
-  <si>
-    <t>제주김만복본점</t>
-  </si>
-  <si>
-    <t>오마주마카롱</t>
-  </si>
-  <si>
-    <t>홍키호테</t>
-  </si>
-  <si>
-    <t>원더먼트제주</t>
-  </si>
-  <si>
-    <t>로드129</t>
-  </si>
-  <si>
-    <t>유채꽃사진촬영소</t>
-  </si>
-  <si>
-    <t>사방팔방 외도점</t>
-  </si>
-  <si>
-    <t>차귀도</t>
-  </si>
-  <si>
-    <t>Howard Johnson Jeju Yeondong Hotel - 하워드존슨 제주 연동 호텔</t>
-  </si>
-  <si>
-    <t>스시애월</t>
-  </si>
-  <si>
-    <t>카페송키</t>
-  </si>
-  <si>
-    <t>Ocean Suites Jeju Hotel</t>
-  </si>
-  <si>
-    <t>블루마린하우스</t>
-  </si>
-  <si>
-    <t>Saturdayisland</t>
-  </si>
-  <si>
-    <t>해바라기 분식</t>
-  </si>
-  <si>
-    <t>크랩잭제주</t>
-  </si>
-  <si>
-    <t>박물관은 살아있다 제주 중문</t>
-  </si>
-  <si>
-    <t>시리우스 호텔</t>
-  </si>
-  <si>
-    <t>해녀엄마의집</t>
-  </si>
-  <si>
-    <t>Jeju National University</t>
-  </si>
-  <si>
-    <t>Villadeato-빌라드아토</t>
-  </si>
-  <si>
-    <t>아날로그감귤밭</t>
-  </si>
-  <si>
-    <t>기원뚝배기</t>
-  </si>
-  <si>
-    <t>민경이네 어등포해녀촌</t>
-  </si>
-  <si>
-    <t>제주국제공항 활주로 (Jeju Airport Runway)</t>
-  </si>
-  <si>
-    <t>U-do Bong( 우도봉)</t>
-  </si>
-  <si>
-    <t>객의하우스</t>
-  </si>
-  <si>
-    <t>해심가든</t>
-  </si>
-  <si>
-    <t>미나마라</t>
-  </si>
-  <si>
-    <t>사계여행</t>
-  </si>
-  <si>
-    <t>한모살식당</t>
-  </si>
-  <si>
-    <t>타시텔레</t>
-  </si>
-  <si>
-    <t>제주도 올레길 6코스 이중섭거리</t>
-  </si>
-  <si>
-    <t>삼보식당</t>
-  </si>
-  <si>
-    <t>서귀포 법환포구</t>
-  </si>
-  <si>
-    <t>맥도날드장안사거리점</t>
-  </si>
-  <si>
-    <t>호박다방</t>
-  </si>
-  <si>
-    <t>Enough, 이너프</t>
-  </si>
-  <si>
-    <t>제주도 한림</t>
-  </si>
-  <si>
-    <t>쇠소깍오메기식당</t>
-  </si>
-  <si>
-    <t>제주도 하늘 위</t>
-  </si>
-  <si>
-    <t>흑송</t>
-  </si>
-  <si>
-    <t>건축카페 - 섶섬이보이는</t>
-  </si>
-  <si>
-    <t>블루밍아일랜드 Blooming Island</t>
-  </si>
-  <si>
-    <t>착한스시</t>
-  </si>
-  <si>
-    <t>카이로스 제주</t>
-  </si>
-  <si>
-    <t>제주 성산읍</t>
-  </si>
-  <si>
-    <t>시월의리브라</t>
-  </si>
-  <si>
-    <t>채점석빵집</t>
-  </si>
-  <si>
-    <t>면뽑는선생 만두빚는아내</t>
-  </si>
-  <si>
-    <t>Cultured</t>
-  </si>
-  <si>
-    <t>에이그라운드</t>
-  </si>
-  <si>
-    <t>제주롯데시네마</t>
-  </si>
-  <si>
-    <t>十五夜 siboya 십오야</t>
-  </si>
-  <si>
-    <t>몽땅카페</t>
-  </si>
-  <si>
-    <t>오메오메동문시장점</t>
-  </si>
-  <si>
-    <t>새우조나단</t>
-  </si>
-  <si>
-    <t>카페어떤오후</t>
-  </si>
-  <si>
-    <t>Gwakji Beaches</t>
-  </si>
-  <si>
-    <t>제주거울미로 이상한나라의앨리스</t>
-  </si>
-  <si>
-    <t>마레벤또</t>
-  </si>
-  <si>
-    <t>군산 정상</t>
-  </si>
-  <si>
-    <t>쉬림포크shrimpork</t>
-  </si>
-  <si>
-    <t>노리매</t>
-  </si>
-  <si>
-    <t>떡하니</t>
-  </si>
-  <si>
-    <t>효섬마을 초가집</t>
-  </si>
-  <si>
-    <t>BUTTON STAY 단추스테이 게스트하우스</t>
-  </si>
-  <si>
-    <t>제주신라면세점</t>
-  </si>
-  <si>
-    <t>청초수물회&amp;섭국 [신관]</t>
-  </si>
-  <si>
-    <t>제주시동문시장</t>
-  </si>
-  <si>
-    <t>하이클래스 제주 (Hiclass Jeju)</t>
-  </si>
-  <si>
-    <t>모닝딜라이트제주광양점</t>
-  </si>
-  <si>
-    <t>블루라군다이브-bluelagoondive</t>
-  </si>
-  <si>
-    <t>서귀포잠수함</t>
-  </si>
-  <si>
-    <t>전주콩나물국밥</t>
-  </si>
-  <si>
-    <t>이스트엔드</t>
-  </si>
-  <si>
-    <t>반디앤로제이</t>
-  </si>
-  <si>
-    <t>유민 아르누보 콜렉션</t>
-  </si>
-  <si>
-    <t>오는정 김밥</t>
-  </si>
-  <si>
-    <t>고성리</t>
-  </si>
-  <si>
-    <t>화순금모래해변</t>
-  </si>
-  <si>
-    <t>거멍국수</t>
-  </si>
-  <si>
-    <t>풍원 한라산볶음밥</t>
-  </si>
-  <si>
-    <t>세종시</t>
-  </si>
-  <si>
-    <t>교래 손 칼국수</t>
-  </si>
-  <si>
-    <t>팀버 커피 제주</t>
-  </si>
-  <si>
-    <t>수카사</t>
-  </si>
-  <si>
-    <t>탕196</t>
-  </si>
-  <si>
-    <t>Jamae Guksu</t>
-  </si>
-  <si>
-    <t>저녁정원</t>
-  </si>
-  <si>
-    <t>Teseum</t>
-  </si>
-  <si>
-    <t>푸릇프릍</t>
-  </si>
-  <si>
-    <t>한복입는 선흘집</t>
-  </si>
-  <si>
-    <t>전주도</t>
-  </si>
-  <si>
-    <t>보목</t>
-  </si>
-  <si>
-    <t>단디501</t>
-  </si>
-  <si>
-    <t>아산 음봉</t>
-  </si>
-  <si>
-    <t>제주 반디앤로제이 펜션 &amp; 플라워브런치카페</t>
   </si>
 </sst>
 </file>
